--- a/data/covid19/daily_confirmed_total.xlsx
+++ b/data/covid19/daily_confirmed_total.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjlee/repos/COVID19_SeoulGyeonggi/data/covid19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/repos/COVID19_SeoulGyeonggi/data/covid19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{381AF413-F532-CE4C-9F3A-70CD24887259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB8F450-7C5C-8849-BD8A-D526F92A784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11240" yWindow="1480" windowWidth="27240" windowHeight="14800" xr2:uid="{CDB7026C-D039-6E42-A7EC-DD15752F5A04}"/>
+    <workbookView xWindow="5000" yWindow="2720" windowWidth="27240" windowHeight="14800" xr2:uid="{CDB7026C-D039-6E42-A7EC-DD15752F5A04}"/>
   </bookViews>
   <sheets>
     <sheet name="daily_confirmed_total" sheetId="3" r:id="rId1"/>
     <sheet name="Gyeonggi" sheetId="1" r:id="rId2"/>
     <sheet name="Seoul" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,10 +69,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E97E4-59A3-2A4A-9E04-1110D78C4BE7}">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8574,7 +8580,49 @@
         <v>6</v>
       </c>
     </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B200">
+        <f>Gyeonggi!B200+Seoul!B200</f>
+        <v>95</v>
+      </c>
+      <c r="C200">
+        <f>Gyeonggi!C200+Seoul!C200</f>
+        <v>104</v>
+      </c>
+      <c r="D200">
+        <f>Gyeonggi!D200+Seoul!D200</f>
+        <v>296</v>
+      </c>
+      <c r="E200">
+        <f>Gyeonggi!E200+Seoul!E200</f>
+        <v>236</v>
+      </c>
+      <c r="F200">
+        <f>Gyeonggi!F200+Seoul!F200</f>
+        <v>206</v>
+      </c>
+      <c r="G200">
+        <f>Gyeonggi!G200+Seoul!G200</f>
+        <v>189</v>
+      </c>
+      <c r="H200">
+        <f>Gyeonggi!H200+Seoul!H200</f>
+        <v>99</v>
+      </c>
+      <c r="I200">
+        <f>Gyeonggi!I200+Seoul!I200</f>
+        <v>24</v>
+      </c>
+      <c r="J200">
+        <f>Gyeonggi!J200+Seoul!J200</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8583,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F15847C-BF25-C644-B62C-91A3E2AC597B}">
   <dimension ref="A1:J562"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14955,31 +15003,292 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B200">
+        <v>59</v>
+      </c>
+      <c r="C200">
+        <v>65</v>
+      </c>
+      <c r="D200">
+        <v>149</v>
+      </c>
+      <c r="E200">
+        <v>124</v>
+      </c>
+      <c r="F200">
+        <v>128</v>
+      </c>
+      <c r="G200">
+        <v>114</v>
+      </c>
+      <c r="H200">
+        <v>44</v>
+      </c>
+      <c r="I200">
+        <v>9</v>
+      </c>
+      <c r="J200">
+        <v>6</v>
+      </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B201">
+        <v>31</v>
+      </c>
+      <c r="C201">
+        <v>48</v>
+      </c>
+      <c r="D201">
+        <v>104</v>
+      </c>
+      <c r="E201">
+        <v>105</v>
+      </c>
+      <c r="F201">
+        <v>96</v>
+      </c>
+      <c r="G201">
+        <v>82</v>
+      </c>
+      <c r="H201">
+        <v>39</v>
+      </c>
+      <c r="I201">
+        <v>7</v>
+      </c>
+      <c r="J201">
+        <v>9</v>
+      </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B202">
+        <v>30</v>
+      </c>
+      <c r="C202">
+        <v>45</v>
+      </c>
+      <c r="D202">
+        <v>130</v>
+      </c>
+      <c r="E202">
+        <v>125</v>
+      </c>
+      <c r="F202">
+        <v>106</v>
+      </c>
+      <c r="G202">
+        <v>85</v>
+      </c>
+      <c r="H202">
+        <v>46</v>
+      </c>
+      <c r="I202">
+        <v>11</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B203">
+        <v>31</v>
+      </c>
+      <c r="C203">
+        <v>44</v>
+      </c>
+      <c r="D203">
+        <v>93</v>
+      </c>
+      <c r="E203">
+        <v>100</v>
+      </c>
+      <c r="F203">
+        <v>81</v>
+      </c>
+      <c r="G203">
+        <v>43</v>
+      </c>
+      <c r="H203">
+        <v>38</v>
+      </c>
+      <c r="I203">
+        <v>14</v>
+      </c>
+      <c r="J203">
+        <v>4</v>
+      </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B204">
+        <v>37</v>
+      </c>
+      <c r="C204">
+        <v>51</v>
+      </c>
+      <c r="D204">
+        <v>63</v>
+      </c>
+      <c r="E204">
+        <v>76</v>
+      </c>
+      <c r="F204">
+        <v>69</v>
+      </c>
+      <c r="G204">
+        <v>63</v>
+      </c>
+      <c r="H204">
+        <v>34</v>
+      </c>
+      <c r="I204">
+        <v>8</v>
+      </c>
+      <c r="J204">
+        <v>2</v>
+      </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B205">
+        <v>36</v>
+      </c>
+      <c r="C205">
+        <v>40</v>
+      </c>
+      <c r="D205">
+        <v>106</v>
+      </c>
+      <c r="E205">
+        <v>93</v>
+      </c>
+      <c r="F205">
+        <v>103</v>
+      </c>
+      <c r="G205">
+        <v>64</v>
+      </c>
+      <c r="H205">
+        <v>28</v>
+      </c>
+      <c r="I205">
+        <v>8</v>
+      </c>
+      <c r="J205">
+        <v>3</v>
+      </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B206">
+        <v>38</v>
+      </c>
+      <c r="C206">
+        <v>79</v>
+      </c>
+      <c r="D206">
+        <v>151</v>
+      </c>
+      <c r="E206">
+        <v>148</v>
+      </c>
+      <c r="F206">
+        <v>126</v>
+      </c>
+      <c r="G206">
+        <v>99</v>
+      </c>
+      <c r="H206">
+        <v>45</v>
+      </c>
+      <c r="I206">
+        <v>12</v>
+      </c>
+      <c r="J206">
+        <v>5</v>
+      </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B207">
+        <v>58</v>
+      </c>
+      <c r="C207">
+        <v>70</v>
+      </c>
+      <c r="D207">
+        <v>120</v>
+      </c>
+      <c r="E207">
+        <v>121</v>
+      </c>
+      <c r="F207">
+        <v>129</v>
+      </c>
+      <c r="G207">
+        <v>85</v>
+      </c>
+      <c r="H207">
+        <v>49</v>
+      </c>
+      <c r="I207">
+        <v>8</v>
+      </c>
+      <c r="J207">
+        <v>3</v>
+      </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B208">
+        <v>26</v>
+      </c>
+      <c r="C208">
+        <v>53</v>
+      </c>
+      <c r="D208">
+        <v>119</v>
+      </c>
+      <c r="E208">
+        <v>116</v>
+      </c>
+      <c r="F208">
+        <v>120</v>
+      </c>
+      <c r="G208">
+        <v>99</v>
+      </c>
+      <c r="H208">
+        <v>43</v>
+      </c>
+      <c r="I208">
+        <v>14</v>
+      </c>
+      <c r="J208">
+        <v>23</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
@@ -16052,8 +16361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A71476-9D4C-5143-A8A9-0CE4866D48A6}">
   <dimension ref="A1:J565"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="J204" sqref="J204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22400,7 +22709,36 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B200">
+        <v>36</v>
+      </c>
+      <c r="C200">
+        <v>39</v>
+      </c>
+      <c r="D200">
+        <v>147</v>
+      </c>
+      <c r="E200">
+        <v>112</v>
+      </c>
+      <c r="F200">
+        <v>78</v>
+      </c>
+      <c r="G200">
+        <v>75</v>
+      </c>
+      <c r="H200">
+        <v>55</v>
+      </c>
+      <c r="I200">
+        <v>15</v>
+      </c>
+      <c r="J200">
+        <v>2</v>
+      </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>

--- a/data/covid19/daily_confirmed_total.xlsx
+++ b/data/covid19/daily_confirmed_total.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/repos/COVID19_SeoulGyeonggi/data/covid19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB8F450-7C5C-8849-BD8A-D526F92A784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE048D56-D6A9-D648-B83F-4FB8A55A0C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2720" windowWidth="27240" windowHeight="14800" xr2:uid="{CDB7026C-D039-6E42-A7EC-DD15752F5A04}"/>
   </bookViews>
@@ -104,11 +104,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E97E4-59A3-2A4A-9E04-1110D78C4BE7}">
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="J261" sqref="J261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8619,6 +8625,2507 @@
       <c r="J200">
         <f>Gyeonggi!J200+Seoul!J200</f>
         <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B201">
+        <f>Gyeonggi!B201+Seoul!B201</f>
+        <v>59</v>
+      </c>
+      <c r="C201">
+        <f>Gyeonggi!C201+Seoul!C201</f>
+        <v>84</v>
+      </c>
+      <c r="D201">
+        <f>Gyeonggi!D201+Seoul!D201</f>
+        <v>226</v>
+      </c>
+      <c r="E201">
+        <f>Gyeonggi!E201+Seoul!E201</f>
+        <v>208</v>
+      </c>
+      <c r="F201">
+        <f>Gyeonggi!F201+Seoul!F201</f>
+        <v>197</v>
+      </c>
+      <c r="G201">
+        <f>Gyeonggi!G201+Seoul!G201</f>
+        <v>150</v>
+      </c>
+      <c r="H201">
+        <f>Gyeonggi!H201+Seoul!H201</f>
+        <v>96</v>
+      </c>
+      <c r="I201">
+        <f>Gyeonggi!I201+Seoul!I201</f>
+        <v>25</v>
+      </c>
+      <c r="J201">
+        <f>Gyeonggi!J201+Seoul!J201</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B202">
+        <f>Gyeonggi!B202+Seoul!B202</f>
+        <v>61</v>
+      </c>
+      <c r="C202">
+        <f>Gyeonggi!C202+Seoul!C202</f>
+        <v>100</v>
+      </c>
+      <c r="D202">
+        <f>Gyeonggi!D202+Seoul!D202</f>
+        <v>269</v>
+      </c>
+      <c r="E202">
+        <f>Gyeonggi!E202+Seoul!E202</f>
+        <v>219</v>
+      </c>
+      <c r="F202">
+        <f>Gyeonggi!F202+Seoul!F202</f>
+        <v>195</v>
+      </c>
+      <c r="G202">
+        <f>Gyeonggi!G202+Seoul!G202</f>
+        <v>167</v>
+      </c>
+      <c r="H202">
+        <f>Gyeonggi!H202+Seoul!H202</f>
+        <v>91</v>
+      </c>
+      <c r="I202">
+        <f>Gyeonggi!I202+Seoul!I202</f>
+        <v>35</v>
+      </c>
+      <c r="J202">
+        <f>Gyeonggi!J202+Seoul!J202</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B203">
+        <f>Gyeonggi!B203+Seoul!B203</f>
+        <v>71</v>
+      </c>
+      <c r="C203">
+        <f>Gyeonggi!C203+Seoul!C203</f>
+        <v>78</v>
+      </c>
+      <c r="D203">
+        <f>Gyeonggi!D203+Seoul!D203</f>
+        <v>211</v>
+      </c>
+      <c r="E203">
+        <f>Gyeonggi!E203+Seoul!E203</f>
+        <v>182</v>
+      </c>
+      <c r="F203">
+        <f>Gyeonggi!F203+Seoul!F203</f>
+        <v>168</v>
+      </c>
+      <c r="G203">
+        <f>Gyeonggi!G203+Seoul!G203</f>
+        <v>112</v>
+      </c>
+      <c r="H203">
+        <f>Gyeonggi!H203+Seoul!H203</f>
+        <v>93</v>
+      </c>
+      <c r="I203">
+        <f>Gyeonggi!I203+Seoul!I203</f>
+        <v>29</v>
+      </c>
+      <c r="J203">
+        <f>Gyeonggi!J203+Seoul!J203</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B204">
+        <f>Gyeonggi!B204+Seoul!B204</f>
+        <v>66</v>
+      </c>
+      <c r="C204">
+        <f>Gyeonggi!C204+Seoul!C204</f>
+        <v>92</v>
+      </c>
+      <c r="D204">
+        <f>Gyeonggi!D204+Seoul!D204</f>
+        <v>153</v>
+      </c>
+      <c r="E204">
+        <f>Gyeonggi!E204+Seoul!E204</f>
+        <v>172</v>
+      </c>
+      <c r="F204">
+        <f>Gyeonggi!F204+Seoul!F204</f>
+        <v>152</v>
+      </c>
+      <c r="G204">
+        <f>Gyeonggi!G204+Seoul!G204</f>
+        <v>143</v>
+      </c>
+      <c r="H204">
+        <f>Gyeonggi!H204+Seoul!H204</f>
+        <v>64</v>
+      </c>
+      <c r="I204">
+        <f>Gyeonggi!I204+Seoul!I204</f>
+        <v>16</v>
+      </c>
+      <c r="J204">
+        <f>Gyeonggi!J204+Seoul!J204</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B205">
+        <f>Gyeonggi!B205+Seoul!B205</f>
+        <v>64</v>
+      </c>
+      <c r="C205">
+        <f>Gyeonggi!C205+Seoul!C205</f>
+        <v>68</v>
+      </c>
+      <c r="D205">
+        <f>Gyeonggi!D205+Seoul!D205</f>
+        <v>222</v>
+      </c>
+      <c r="E205">
+        <f>Gyeonggi!E205+Seoul!E205</f>
+        <v>184</v>
+      </c>
+      <c r="F205">
+        <f>Gyeonggi!F205+Seoul!F205</f>
+        <v>193</v>
+      </c>
+      <c r="G205">
+        <f>Gyeonggi!G205+Seoul!G205</f>
+        <v>133</v>
+      </c>
+      <c r="H205">
+        <f>Gyeonggi!H205+Seoul!H205</f>
+        <v>74</v>
+      </c>
+      <c r="I205">
+        <f>Gyeonggi!I205+Seoul!I205</f>
+        <v>21</v>
+      </c>
+      <c r="J205">
+        <f>Gyeonggi!J205+Seoul!J205</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B206">
+        <f>Gyeonggi!B206+Seoul!B206</f>
+        <v>62</v>
+      </c>
+      <c r="C206">
+        <f>Gyeonggi!C206+Seoul!C206</f>
+        <v>139</v>
+      </c>
+      <c r="D206">
+        <f>Gyeonggi!D206+Seoul!D206</f>
+        <v>300</v>
+      </c>
+      <c r="E206">
+        <f>Gyeonggi!E206+Seoul!E206</f>
+        <v>274</v>
+      </c>
+      <c r="F206">
+        <f>Gyeonggi!F206+Seoul!F206</f>
+        <v>257</v>
+      </c>
+      <c r="G206">
+        <f>Gyeonggi!G206+Seoul!G206</f>
+        <v>199</v>
+      </c>
+      <c r="H206">
+        <f>Gyeonggi!H206+Seoul!H206</f>
+        <v>107</v>
+      </c>
+      <c r="I206">
+        <f>Gyeonggi!I206+Seoul!I206</f>
+        <v>25</v>
+      </c>
+      <c r="J206">
+        <f>Gyeonggi!J206+Seoul!J206</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B207">
+        <f>Gyeonggi!B207+Seoul!B207</f>
+        <v>90</v>
+      </c>
+      <c r="C207">
+        <f>Gyeonggi!C207+Seoul!C207</f>
+        <v>112</v>
+      </c>
+      <c r="D207">
+        <f>Gyeonggi!D207+Seoul!D207</f>
+        <v>293</v>
+      </c>
+      <c r="E207">
+        <f>Gyeonggi!E207+Seoul!E207</f>
+        <v>242</v>
+      </c>
+      <c r="F207">
+        <f>Gyeonggi!F207+Seoul!F207</f>
+        <v>241</v>
+      </c>
+      <c r="G207">
+        <f>Gyeonggi!G207+Seoul!G207</f>
+        <v>184</v>
+      </c>
+      <c r="H207">
+        <f>Gyeonggi!H207+Seoul!H207</f>
+        <v>115</v>
+      </c>
+      <c r="I207">
+        <f>Gyeonggi!I207+Seoul!I207</f>
+        <v>25</v>
+      </c>
+      <c r="J207">
+        <f>Gyeonggi!J207+Seoul!J207</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B208">
+        <f>Gyeonggi!B208+Seoul!B208</f>
+        <v>77</v>
+      </c>
+      <c r="C208">
+        <f>Gyeonggi!C208+Seoul!C208</f>
+        <v>93</v>
+      </c>
+      <c r="D208">
+        <f>Gyeonggi!D208+Seoul!D208</f>
+        <v>288</v>
+      </c>
+      <c r="E208">
+        <f>Gyeonggi!E208+Seoul!E208</f>
+        <v>238</v>
+      </c>
+      <c r="F208">
+        <f>Gyeonggi!F208+Seoul!F208</f>
+        <v>229</v>
+      </c>
+      <c r="G208">
+        <f>Gyeonggi!G208+Seoul!G208</f>
+        <v>193</v>
+      </c>
+      <c r="H208">
+        <f>Gyeonggi!H208+Seoul!H208</f>
+        <v>103</v>
+      </c>
+      <c r="I208">
+        <f>Gyeonggi!I208+Seoul!I208</f>
+        <v>31</v>
+      </c>
+      <c r="J208">
+        <f>Gyeonggi!J208+Seoul!J208</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B209">
+        <f>Gyeonggi!B209+Seoul!B209</f>
+        <v>94</v>
+      </c>
+      <c r="C209">
+        <f>Gyeonggi!C209+Seoul!C209</f>
+        <v>95</v>
+      </c>
+      <c r="D209">
+        <f>Gyeonggi!D209+Seoul!D209</f>
+        <v>261</v>
+      </c>
+      <c r="E209">
+        <f>Gyeonggi!E209+Seoul!E209</f>
+        <v>249</v>
+      </c>
+      <c r="F209">
+        <f>Gyeonggi!F209+Seoul!F209</f>
+        <v>214</v>
+      </c>
+      <c r="G209">
+        <f>Gyeonggi!G209+Seoul!G209</f>
+        <v>165</v>
+      </c>
+      <c r="H209">
+        <f>Gyeonggi!H209+Seoul!H209</f>
+        <v>103</v>
+      </c>
+      <c r="I209">
+        <f>Gyeonggi!I209+Seoul!I209</f>
+        <v>43</v>
+      </c>
+      <c r="J209">
+        <f>Gyeonggi!J209+Seoul!J209</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B210">
+        <f>Gyeonggi!B210+Seoul!B210</f>
+        <v>83</v>
+      </c>
+      <c r="C210">
+        <f>Gyeonggi!C210+Seoul!C210</f>
+        <v>126</v>
+      </c>
+      <c r="D210">
+        <f>Gyeonggi!D210+Seoul!D210</f>
+        <v>217</v>
+      </c>
+      <c r="E210">
+        <f>Gyeonggi!E210+Seoul!E210</f>
+        <v>248</v>
+      </c>
+      <c r="F210">
+        <f>Gyeonggi!F210+Seoul!F210</f>
+        <v>217</v>
+      </c>
+      <c r="G210">
+        <f>Gyeonggi!G210+Seoul!G210</f>
+        <v>122</v>
+      </c>
+      <c r="H210">
+        <f>Gyeonggi!H210+Seoul!H210</f>
+        <v>88</v>
+      </c>
+      <c r="I210">
+        <f>Gyeonggi!I210+Seoul!I210</f>
+        <v>30</v>
+      </c>
+      <c r="J210">
+        <f>Gyeonggi!J210+Seoul!J210</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B211">
+        <f>Gyeonggi!B211+Seoul!B211</f>
+        <v>78</v>
+      </c>
+      <c r="C211">
+        <f>Gyeonggi!C211+Seoul!C211</f>
+        <v>78</v>
+      </c>
+      <c r="D211">
+        <f>Gyeonggi!D211+Seoul!D211</f>
+        <v>193</v>
+      </c>
+      <c r="E211">
+        <f>Gyeonggi!E211+Seoul!E211</f>
+        <v>185</v>
+      </c>
+      <c r="F211">
+        <f>Gyeonggi!F211+Seoul!F211</f>
+        <v>171</v>
+      </c>
+      <c r="G211">
+        <f>Gyeonggi!G211+Seoul!G211</f>
+        <v>126</v>
+      </c>
+      <c r="H211">
+        <f>Gyeonggi!H211+Seoul!H211</f>
+        <v>89</v>
+      </c>
+      <c r="I211">
+        <f>Gyeonggi!I211+Seoul!I211</f>
+        <v>23</v>
+      </c>
+      <c r="J211">
+        <f>Gyeonggi!J211+Seoul!J211</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B212">
+        <f>Gyeonggi!B212+Seoul!B212</f>
+        <v>73</v>
+      </c>
+      <c r="C212">
+        <f>Gyeonggi!C212+Seoul!C212</f>
+        <v>78</v>
+      </c>
+      <c r="D212">
+        <f>Gyeonggi!D212+Seoul!D212</f>
+        <v>220</v>
+      </c>
+      <c r="E212">
+        <f>Gyeonggi!E212+Seoul!E212</f>
+        <v>184</v>
+      </c>
+      <c r="F212">
+        <f>Gyeonggi!F212+Seoul!F212</f>
+        <v>177</v>
+      </c>
+      <c r="G212">
+        <f>Gyeonggi!G212+Seoul!G212</f>
+        <v>152</v>
+      </c>
+      <c r="H212">
+        <f>Gyeonggi!H212+Seoul!H212</f>
+        <v>78</v>
+      </c>
+      <c r="I212">
+        <f>Gyeonggi!I212+Seoul!I212</f>
+        <v>25</v>
+      </c>
+      <c r="J212">
+        <f>Gyeonggi!J212+Seoul!J212</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B213">
+        <f>Gyeonggi!B213+Seoul!B213</f>
+        <v>97</v>
+      </c>
+      <c r="C213">
+        <f>Gyeonggi!C213+Seoul!C213</f>
+        <v>136</v>
+      </c>
+      <c r="D213">
+        <f>Gyeonggi!D213+Seoul!D213</f>
+        <v>296</v>
+      </c>
+      <c r="E213">
+        <f>Gyeonggi!E213+Seoul!E213</f>
+        <v>339</v>
+      </c>
+      <c r="F213">
+        <f>Gyeonggi!F213+Seoul!F213</f>
+        <v>269</v>
+      </c>
+      <c r="G213">
+        <f>Gyeonggi!G213+Seoul!G213</f>
+        <v>185</v>
+      </c>
+      <c r="H213">
+        <f>Gyeonggi!H213+Seoul!H213</f>
+        <v>113</v>
+      </c>
+      <c r="I213">
+        <f>Gyeonggi!I213+Seoul!I213</f>
+        <v>38</v>
+      </c>
+      <c r="J213">
+        <f>Gyeonggi!J213+Seoul!J213</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B214">
+        <f>Gyeonggi!B214+Seoul!B214</f>
+        <v>103</v>
+      </c>
+      <c r="C214">
+        <f>Gyeonggi!C214+Seoul!C214</f>
+        <v>128</v>
+      </c>
+      <c r="D214">
+        <f>Gyeonggi!D214+Seoul!D214</f>
+        <v>290</v>
+      </c>
+      <c r="E214">
+        <f>Gyeonggi!E214+Seoul!E214</f>
+        <v>300</v>
+      </c>
+      <c r="F214">
+        <f>Gyeonggi!F214+Seoul!F214</f>
+        <v>243</v>
+      </c>
+      <c r="G214">
+        <f>Gyeonggi!G214+Seoul!G214</f>
+        <v>136</v>
+      </c>
+      <c r="H214">
+        <f>Gyeonggi!H214+Seoul!H214</f>
+        <v>111</v>
+      </c>
+      <c r="I214">
+        <f>Gyeonggi!I214+Seoul!I214</f>
+        <v>39</v>
+      </c>
+      <c r="J214">
+        <f>Gyeonggi!J214+Seoul!J214</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B215">
+        <f>Gyeonggi!B215+Seoul!B215</f>
+        <v>93</v>
+      </c>
+      <c r="C215">
+        <f>Gyeonggi!C215+Seoul!C215</f>
+        <v>140</v>
+      </c>
+      <c r="D215">
+        <f>Gyeonggi!D215+Seoul!D215</f>
+        <v>294</v>
+      </c>
+      <c r="E215">
+        <f>Gyeonggi!E215+Seoul!E215</f>
+        <v>270</v>
+      </c>
+      <c r="F215">
+        <f>Gyeonggi!F215+Seoul!F215</f>
+        <v>237</v>
+      </c>
+      <c r="G215">
+        <f>Gyeonggi!G215+Seoul!G215</f>
+        <v>175</v>
+      </c>
+      <c r="H215">
+        <f>Gyeonggi!H215+Seoul!H215</f>
+        <v>141</v>
+      </c>
+      <c r="I215">
+        <f>Gyeonggi!I215+Seoul!I215</f>
+        <v>43</v>
+      </c>
+      <c r="J215">
+        <f>Gyeonggi!J215+Seoul!J215</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B216">
+        <f>Gyeonggi!B216+Seoul!B216</f>
+        <v>97</v>
+      </c>
+      <c r="C216">
+        <f>Gyeonggi!C216+Seoul!C216</f>
+        <v>133</v>
+      </c>
+      <c r="D216">
+        <f>Gyeonggi!D216+Seoul!D216</f>
+        <v>248</v>
+      </c>
+      <c r="E216">
+        <f>Gyeonggi!E216+Seoul!E216</f>
+        <v>273</v>
+      </c>
+      <c r="F216">
+        <f>Gyeonggi!F216+Seoul!F216</f>
+        <v>266</v>
+      </c>
+      <c r="G216">
+        <f>Gyeonggi!G216+Seoul!G216</f>
+        <v>183</v>
+      </c>
+      <c r="H216">
+        <f>Gyeonggi!H216+Seoul!H216</f>
+        <v>118</v>
+      </c>
+      <c r="I216">
+        <f>Gyeonggi!I216+Seoul!I216</f>
+        <v>40</v>
+      </c>
+      <c r="J216">
+        <f>Gyeonggi!J216+Seoul!J216</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B217">
+        <f>Gyeonggi!B217+Seoul!B217</f>
+        <v>84</v>
+      </c>
+      <c r="C217">
+        <f>Gyeonggi!C217+Seoul!C217</f>
+        <v>115</v>
+      </c>
+      <c r="D217">
+        <f>Gyeonggi!D217+Seoul!D217</f>
+        <v>249</v>
+      </c>
+      <c r="E217">
+        <f>Gyeonggi!E217+Seoul!E217</f>
+        <v>231</v>
+      </c>
+      <c r="F217">
+        <f>Gyeonggi!F217+Seoul!F217</f>
+        <v>251</v>
+      </c>
+      <c r="G217">
+        <f>Gyeonggi!G217+Seoul!G217</f>
+        <v>176</v>
+      </c>
+      <c r="H217">
+        <f>Gyeonggi!H217+Seoul!H217</f>
+        <v>117</v>
+      </c>
+      <c r="I217">
+        <f>Gyeonggi!I217+Seoul!I217</f>
+        <v>48</v>
+      </c>
+      <c r="J217">
+        <f>Gyeonggi!J217+Seoul!J217</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44458</v>
+      </c>
+      <c r="B218">
+        <f>Gyeonggi!B218+Seoul!B218</f>
+        <v>70</v>
+      </c>
+      <c r="C218">
+        <f>Gyeonggi!C218+Seoul!C218</f>
+        <v>99</v>
+      </c>
+      <c r="D218">
+        <f>Gyeonggi!D218+Seoul!D218</f>
+        <v>205</v>
+      </c>
+      <c r="E218">
+        <f>Gyeonggi!E218+Seoul!E218</f>
+        <v>208</v>
+      </c>
+      <c r="F218">
+        <f>Gyeonggi!F218+Seoul!F218</f>
+        <v>201</v>
+      </c>
+      <c r="G218">
+        <f>Gyeonggi!G218+Seoul!G218</f>
+        <v>147</v>
+      </c>
+      <c r="H218">
+        <f>Gyeonggi!H218+Seoul!H218</f>
+        <v>94</v>
+      </c>
+      <c r="I218">
+        <f>Gyeonggi!I218+Seoul!I218</f>
+        <v>45</v>
+      </c>
+      <c r="J218">
+        <f>Gyeonggi!J218+Seoul!J218</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B219">
+        <f>Gyeonggi!B219+Seoul!B219</f>
+        <v>71</v>
+      </c>
+      <c r="C219">
+        <f>Gyeonggi!C219+Seoul!C219</f>
+        <v>111</v>
+      </c>
+      <c r="D219">
+        <f>Gyeonggi!D219+Seoul!D219</f>
+        <v>232</v>
+      </c>
+      <c r="E219">
+        <f>Gyeonggi!E219+Seoul!E219</f>
+        <v>211</v>
+      </c>
+      <c r="F219">
+        <f>Gyeonggi!F219+Seoul!F219</f>
+        <v>214</v>
+      </c>
+      <c r="G219">
+        <f>Gyeonggi!G219+Seoul!G219</f>
+        <v>148</v>
+      </c>
+      <c r="H219">
+        <f>Gyeonggi!H219+Seoul!H219</f>
+        <v>120</v>
+      </c>
+      <c r="I219">
+        <f>Gyeonggi!I219+Seoul!I219</f>
+        <v>52</v>
+      </c>
+      <c r="J219">
+        <f>Gyeonggi!J219+Seoul!J219</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B220">
+        <f>Gyeonggi!B220+Seoul!B220</f>
+        <v>63</v>
+      </c>
+      <c r="C220">
+        <f>Gyeonggi!C220+Seoul!C220</f>
+        <v>107</v>
+      </c>
+      <c r="D220">
+        <f>Gyeonggi!D220+Seoul!D220</f>
+        <v>212</v>
+      </c>
+      <c r="E220">
+        <f>Gyeonggi!E220+Seoul!E220</f>
+        <v>202</v>
+      </c>
+      <c r="F220">
+        <f>Gyeonggi!F220+Seoul!F220</f>
+        <v>230</v>
+      </c>
+      <c r="G220">
+        <f>Gyeonggi!G220+Seoul!G220</f>
+        <v>156</v>
+      </c>
+      <c r="H220">
+        <f>Gyeonggi!H220+Seoul!H220</f>
+        <v>126</v>
+      </c>
+      <c r="I220">
+        <f>Gyeonggi!I220+Seoul!I220</f>
+        <v>67</v>
+      </c>
+      <c r="J220">
+        <f>Gyeonggi!J220+Seoul!J220</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B221">
+        <f>Gyeonggi!B221+Seoul!B221</f>
+        <v>57</v>
+      </c>
+      <c r="C221">
+        <f>Gyeonggi!C221+Seoul!C221</f>
+        <v>91</v>
+      </c>
+      <c r="D221">
+        <f>Gyeonggi!D221+Seoul!D221</f>
+        <v>249</v>
+      </c>
+      <c r="E221">
+        <f>Gyeonggi!E221+Seoul!E221</f>
+        <v>233</v>
+      </c>
+      <c r="F221">
+        <f>Gyeonggi!F221+Seoul!F221</f>
+        <v>221</v>
+      </c>
+      <c r="G221">
+        <f>Gyeonggi!G221+Seoul!G221</f>
+        <v>153</v>
+      </c>
+      <c r="H221">
+        <f>Gyeonggi!H221+Seoul!H221</f>
+        <v>116</v>
+      </c>
+      <c r="I221">
+        <f>Gyeonggi!I221+Seoul!I221</f>
+        <v>53</v>
+      </c>
+      <c r="J221">
+        <f>Gyeonggi!J221+Seoul!J221</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B222">
+        <f>Gyeonggi!B222+Seoul!B222</f>
+        <v>81</v>
+      </c>
+      <c r="C222">
+        <f>Gyeonggi!C222+Seoul!C222</f>
+        <v>144</v>
+      </c>
+      <c r="D222">
+        <f>Gyeonggi!D222+Seoul!D222</f>
+        <v>306</v>
+      </c>
+      <c r="E222">
+        <f>Gyeonggi!E222+Seoul!E222</f>
+        <v>283</v>
+      </c>
+      <c r="F222">
+        <f>Gyeonggi!F222+Seoul!F222</f>
+        <v>324</v>
+      </c>
+      <c r="G222">
+        <f>Gyeonggi!G222+Seoul!G222</f>
+        <v>242</v>
+      </c>
+      <c r="H222">
+        <f>Gyeonggi!H222+Seoul!H222</f>
+        <v>150</v>
+      </c>
+      <c r="I222">
+        <f>Gyeonggi!I222+Seoul!I222</f>
+        <v>61</v>
+      </c>
+      <c r="J222">
+        <f>Gyeonggi!J222+Seoul!J222</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B223">
+        <f>Gyeonggi!B223+Seoul!B223</f>
+        <v>150</v>
+      </c>
+      <c r="C223">
+        <f>Gyeonggi!C223+Seoul!C223</f>
+        <v>219</v>
+      </c>
+      <c r="D223">
+        <f>Gyeonggi!D223+Seoul!D223</f>
+        <v>500</v>
+      </c>
+      <c r="E223">
+        <f>Gyeonggi!E223+Seoul!E223</f>
+        <v>469</v>
+      </c>
+      <c r="F223">
+        <f>Gyeonggi!F223+Seoul!F223</f>
+        <v>392</v>
+      </c>
+      <c r="G223">
+        <f>Gyeonggi!G223+Seoul!G223</f>
+        <v>260</v>
+      </c>
+      <c r="H223">
+        <f>Gyeonggi!H223+Seoul!H223</f>
+        <v>199</v>
+      </c>
+      <c r="I223">
+        <f>Gyeonggi!I223+Seoul!I223</f>
+        <v>92</v>
+      </c>
+      <c r="J223">
+        <f>Gyeonggi!J223+Seoul!J223</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B224">
+        <f>Gyeonggi!B224+Seoul!B224</f>
+        <v>129</v>
+      </c>
+      <c r="C224">
+        <f>Gyeonggi!C224+Seoul!C224</f>
+        <v>174</v>
+      </c>
+      <c r="D224">
+        <f>Gyeonggi!D224+Seoul!D224</f>
+        <v>431</v>
+      </c>
+      <c r="E224">
+        <f>Gyeonggi!E224+Seoul!E224</f>
+        <v>334</v>
+      </c>
+      <c r="F224">
+        <f>Gyeonggi!F224+Seoul!F224</f>
+        <v>300</v>
+      </c>
+      <c r="G224">
+        <f>Gyeonggi!G224+Seoul!G224</f>
+        <v>225</v>
+      </c>
+      <c r="H224">
+        <f>Gyeonggi!H224+Seoul!H224</f>
+        <v>153</v>
+      </c>
+      <c r="I224">
+        <f>Gyeonggi!I224+Seoul!I224</f>
+        <v>66</v>
+      </c>
+      <c r="J224">
+        <f>Gyeonggi!J224+Seoul!J224</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B225">
+        <f>Gyeonggi!B225+Seoul!B225</f>
+        <v>121</v>
+      </c>
+      <c r="C225">
+        <f>Gyeonggi!C225+Seoul!C225</f>
+        <v>152</v>
+      </c>
+      <c r="D225">
+        <f>Gyeonggi!D225+Seoul!D225</f>
+        <v>341</v>
+      </c>
+      <c r="E225">
+        <f>Gyeonggi!E225+Seoul!E225</f>
+        <v>276</v>
+      </c>
+      <c r="F225">
+        <f>Gyeonggi!F225+Seoul!F225</f>
+        <v>249</v>
+      </c>
+      <c r="G225">
+        <f>Gyeonggi!G225+Seoul!G225</f>
+        <v>179</v>
+      </c>
+      <c r="H225">
+        <f>Gyeonggi!H225+Seoul!H225</f>
+        <v>120</v>
+      </c>
+      <c r="I225">
+        <f>Gyeonggi!I225+Seoul!I225</f>
+        <v>64</v>
+      </c>
+      <c r="J225">
+        <f>Gyeonggi!J225+Seoul!J225</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B226">
+        <f>Gyeonggi!B226+Seoul!B226</f>
+        <v>98</v>
+      </c>
+      <c r="C226">
+        <f>Gyeonggi!C226+Seoul!C226</f>
+        <v>175</v>
+      </c>
+      <c r="D226">
+        <f>Gyeonggi!D226+Seoul!D226</f>
+        <v>334</v>
+      </c>
+      <c r="E226">
+        <f>Gyeonggi!E226+Seoul!E226</f>
+        <v>273</v>
+      </c>
+      <c r="F226">
+        <f>Gyeonggi!F226+Seoul!F226</f>
+        <v>259</v>
+      </c>
+      <c r="G226">
+        <f>Gyeonggi!G226+Seoul!G226</f>
+        <v>169</v>
+      </c>
+      <c r="H226">
+        <f>Gyeonggi!H226+Seoul!H226</f>
+        <v>141</v>
+      </c>
+      <c r="I226">
+        <f>Gyeonggi!I226+Seoul!I226</f>
+        <v>71</v>
+      </c>
+      <c r="J226">
+        <f>Gyeonggi!J226+Seoul!J226</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B227">
+        <f>Gyeonggi!B227+Seoul!B227</f>
+        <v>107</v>
+      </c>
+      <c r="C227">
+        <f>Gyeonggi!C227+Seoul!C227</f>
+        <v>213</v>
+      </c>
+      <c r="D227">
+        <f>Gyeonggi!D227+Seoul!D227</f>
+        <v>488</v>
+      </c>
+      <c r="E227">
+        <f>Gyeonggi!E227+Seoul!E227</f>
+        <v>371</v>
+      </c>
+      <c r="F227">
+        <f>Gyeonggi!F227+Seoul!F227</f>
+        <v>323</v>
+      </c>
+      <c r="G227">
+        <f>Gyeonggi!G227+Seoul!G227</f>
+        <v>226</v>
+      </c>
+      <c r="H227">
+        <f>Gyeonggi!H227+Seoul!H227</f>
+        <v>177</v>
+      </c>
+      <c r="I227">
+        <f>Gyeonggi!I227+Seoul!I227</f>
+        <v>99</v>
+      </c>
+      <c r="J227">
+        <f>Gyeonggi!J227+Seoul!J227</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B228">
+        <f>Gyeonggi!B228+Seoul!B228</f>
+        <v>102</v>
+      </c>
+      <c r="C228">
+        <f>Gyeonggi!C228+Seoul!C228</f>
+        <v>202</v>
+      </c>
+      <c r="D228">
+        <f>Gyeonggi!D228+Seoul!D228</f>
+        <v>397</v>
+      </c>
+      <c r="E228">
+        <f>Gyeonggi!E228+Seoul!E228</f>
+        <v>332</v>
+      </c>
+      <c r="F228">
+        <f>Gyeonggi!F228+Seoul!F228</f>
+        <v>276</v>
+      </c>
+      <c r="G228">
+        <f>Gyeonggi!G228+Seoul!G228</f>
+        <v>225</v>
+      </c>
+      <c r="H228">
+        <f>Gyeonggi!H228+Seoul!H228</f>
+        <v>171</v>
+      </c>
+      <c r="I228">
+        <f>Gyeonggi!I228+Seoul!I228</f>
+        <v>69</v>
+      </c>
+      <c r="J228">
+        <f>Gyeonggi!J228+Seoul!J228</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B229">
+        <f>Gyeonggi!B229+Seoul!B229</f>
+        <v>106</v>
+      </c>
+      <c r="C229">
+        <f>Gyeonggi!C229+Seoul!C229</f>
+        <v>205</v>
+      </c>
+      <c r="D229">
+        <f>Gyeonggi!D229+Seoul!D229</f>
+        <v>406</v>
+      </c>
+      <c r="E229">
+        <f>Gyeonggi!E229+Seoul!E229</f>
+        <v>286</v>
+      </c>
+      <c r="F229">
+        <f>Gyeonggi!F229+Seoul!F229</f>
+        <v>262</v>
+      </c>
+      <c r="G229">
+        <f>Gyeonggi!G229+Seoul!G229</f>
+        <v>214</v>
+      </c>
+      <c r="H229">
+        <f>Gyeonggi!H229+Seoul!H229</f>
+        <v>166</v>
+      </c>
+      <c r="I229">
+        <f>Gyeonggi!I229+Seoul!I229</f>
+        <v>65</v>
+      </c>
+      <c r="J229">
+        <f>Gyeonggi!J229+Seoul!J229</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B230">
+        <f>Gyeonggi!B230+Seoul!B230</f>
+        <v>120</v>
+      </c>
+      <c r="C230">
+        <f>Gyeonggi!C230+Seoul!C230</f>
+        <v>166</v>
+      </c>
+      <c r="D230">
+        <f>Gyeonggi!D230+Seoul!D230</f>
+        <v>326</v>
+      </c>
+      <c r="E230">
+        <f>Gyeonggi!E230+Seoul!E230</f>
+        <v>255</v>
+      </c>
+      <c r="F230">
+        <f>Gyeonggi!F230+Seoul!F230</f>
+        <v>258</v>
+      </c>
+      <c r="G230">
+        <f>Gyeonggi!G230+Seoul!G230</f>
+        <v>169</v>
+      </c>
+      <c r="H230">
+        <f>Gyeonggi!H230+Seoul!H230</f>
+        <v>154</v>
+      </c>
+      <c r="I230">
+        <f>Gyeonggi!I230+Seoul!I230</f>
+        <v>71</v>
+      </c>
+      <c r="J230">
+        <f>Gyeonggi!J230+Seoul!J230</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B231">
+        <f>Gyeonggi!B231+Seoul!B231</f>
+        <v>85</v>
+      </c>
+      <c r="C231">
+        <f>Gyeonggi!C231+Seoul!C231</f>
+        <v>138</v>
+      </c>
+      <c r="D231">
+        <f>Gyeonggi!D231+Seoul!D231</f>
+        <v>296</v>
+      </c>
+      <c r="E231">
+        <f>Gyeonggi!E231+Seoul!E231</f>
+        <v>271</v>
+      </c>
+      <c r="F231">
+        <f>Gyeonggi!F231+Seoul!F231</f>
+        <v>215</v>
+      </c>
+      <c r="G231">
+        <f>Gyeonggi!G231+Seoul!G231</f>
+        <v>177</v>
+      </c>
+      <c r="H231">
+        <f>Gyeonggi!H231+Seoul!H231</f>
+        <v>137</v>
+      </c>
+      <c r="I231">
+        <f>Gyeonggi!I231+Seoul!I231</f>
+        <v>60</v>
+      </c>
+      <c r="J231">
+        <f>Gyeonggi!J231+Seoul!J231</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B232">
+        <f>Gyeonggi!B232+Seoul!B232</f>
+        <v>77</v>
+      </c>
+      <c r="C232">
+        <f>Gyeonggi!C232+Seoul!C232</f>
+        <v>138</v>
+      </c>
+      <c r="D232">
+        <f>Gyeonggi!D232+Seoul!D232</f>
+        <v>214</v>
+      </c>
+      <c r="E232">
+        <f>Gyeonggi!E232+Seoul!E232</f>
+        <v>179</v>
+      </c>
+      <c r="F232">
+        <f>Gyeonggi!F232+Seoul!F232</f>
+        <v>171</v>
+      </c>
+      <c r="G232">
+        <f>Gyeonggi!G232+Seoul!G232</f>
+        <v>142</v>
+      </c>
+      <c r="H232">
+        <f>Gyeonggi!H232+Seoul!H232</f>
+        <v>118</v>
+      </c>
+      <c r="I232">
+        <f>Gyeonggi!I232+Seoul!I232</f>
+        <v>39</v>
+      </c>
+      <c r="J232">
+        <f>Gyeonggi!J232+Seoul!J232</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B233">
+        <f>Gyeonggi!B233+Seoul!B233</f>
+        <v>52</v>
+      </c>
+      <c r="C233">
+        <f>Gyeonggi!C233+Seoul!C233</f>
+        <v>100</v>
+      </c>
+      <c r="D233">
+        <f>Gyeonggi!D233+Seoul!D233</f>
+        <v>183</v>
+      </c>
+      <c r="E233">
+        <f>Gyeonggi!E233+Seoul!E233</f>
+        <v>189</v>
+      </c>
+      <c r="F233">
+        <f>Gyeonggi!F233+Seoul!F233</f>
+        <v>174</v>
+      </c>
+      <c r="G233">
+        <f>Gyeonggi!G233+Seoul!G233</f>
+        <v>120</v>
+      </c>
+      <c r="H233">
+        <f>Gyeonggi!H233+Seoul!H233</f>
+        <v>103</v>
+      </c>
+      <c r="I233">
+        <f>Gyeonggi!I233+Seoul!I233</f>
+        <v>54</v>
+      </c>
+      <c r="J233">
+        <f>Gyeonggi!J233+Seoul!J233</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B234">
+        <f>Gyeonggi!B234+Seoul!B234</f>
+        <v>81</v>
+      </c>
+      <c r="C234">
+        <f>Gyeonggi!C234+Seoul!C234</f>
+        <v>151</v>
+      </c>
+      <c r="D234">
+        <f>Gyeonggi!D234+Seoul!D234</f>
+        <v>263</v>
+      </c>
+      <c r="E234">
+        <f>Gyeonggi!E234+Seoul!E234</f>
+        <v>257</v>
+      </c>
+      <c r="F234">
+        <f>Gyeonggi!F234+Seoul!F234</f>
+        <v>209</v>
+      </c>
+      <c r="G234">
+        <f>Gyeonggi!G234+Seoul!G234</f>
+        <v>190</v>
+      </c>
+      <c r="H234">
+        <f>Gyeonggi!H234+Seoul!H234</f>
+        <v>128</v>
+      </c>
+      <c r="I234">
+        <f>Gyeonggi!I234+Seoul!I234</f>
+        <v>61</v>
+      </c>
+      <c r="J234">
+        <f>Gyeonggi!J234+Seoul!J234</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B235">
+        <f>Gyeonggi!B235+Seoul!B235</f>
+        <v>100</v>
+      </c>
+      <c r="C235">
+        <f>Gyeonggi!C235+Seoul!C235</f>
+        <v>190</v>
+      </c>
+      <c r="D235">
+        <f>Gyeonggi!D235+Seoul!D235</f>
+        <v>310</v>
+      </c>
+      <c r="E235">
+        <f>Gyeonggi!E235+Seoul!E235</f>
+        <v>284</v>
+      </c>
+      <c r="F235">
+        <f>Gyeonggi!F235+Seoul!F235</f>
+        <v>272</v>
+      </c>
+      <c r="G235">
+        <f>Gyeonggi!G235+Seoul!G235</f>
+        <v>212</v>
+      </c>
+      <c r="H235">
+        <f>Gyeonggi!H235+Seoul!H235</f>
+        <v>203</v>
+      </c>
+      <c r="I235">
+        <f>Gyeonggi!I235+Seoul!I235</f>
+        <v>82</v>
+      </c>
+      <c r="J235">
+        <f>Gyeonggi!J235+Seoul!J235</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B236">
+        <f>Gyeonggi!B236+Seoul!B236</f>
+        <v>123</v>
+      </c>
+      <c r="C236">
+        <f>Gyeonggi!C236+Seoul!C236</f>
+        <v>154</v>
+      </c>
+      <c r="D236">
+        <f>Gyeonggi!D236+Seoul!D236</f>
+        <v>275</v>
+      </c>
+      <c r="E236">
+        <f>Gyeonggi!E236+Seoul!E236</f>
+        <v>251</v>
+      </c>
+      <c r="F236">
+        <f>Gyeonggi!F236+Seoul!F236</f>
+        <v>223</v>
+      </c>
+      <c r="G236">
+        <f>Gyeonggi!G236+Seoul!G236</f>
+        <v>198</v>
+      </c>
+      <c r="H236">
+        <f>Gyeonggi!H236+Seoul!H236</f>
+        <v>191</v>
+      </c>
+      <c r="I236">
+        <f>Gyeonggi!I236+Seoul!I236</f>
+        <v>73</v>
+      </c>
+      <c r="J236">
+        <f>Gyeonggi!J236+Seoul!J236</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B237">
+        <f>Gyeonggi!B237+Seoul!B237</f>
+        <v>96</v>
+      </c>
+      <c r="C237">
+        <f>Gyeonggi!C237+Seoul!C237</f>
+        <v>139</v>
+      </c>
+      <c r="D237">
+        <f>Gyeonggi!D237+Seoul!D237</f>
+        <v>214</v>
+      </c>
+      <c r="E237">
+        <f>Gyeonggi!E237+Seoul!E237</f>
+        <v>217</v>
+      </c>
+      <c r="F237">
+        <f>Gyeonggi!F237+Seoul!F237</f>
+        <v>233</v>
+      </c>
+      <c r="G237">
+        <f>Gyeonggi!G237+Seoul!G237</f>
+        <v>171</v>
+      </c>
+      <c r="H237">
+        <f>Gyeonggi!H237+Seoul!H237</f>
+        <v>179</v>
+      </c>
+      <c r="I237">
+        <f>Gyeonggi!I237+Seoul!I237</f>
+        <v>62</v>
+      </c>
+      <c r="J237">
+        <f>Gyeonggi!J237+Seoul!J237</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B238">
+        <f>Gyeonggi!B238+Seoul!B238</f>
+        <v>87</v>
+      </c>
+      <c r="C238">
+        <f>Gyeonggi!C238+Seoul!C238</f>
+        <v>110</v>
+      </c>
+      <c r="D238">
+        <f>Gyeonggi!D238+Seoul!D238</f>
+        <v>212</v>
+      </c>
+      <c r="E238">
+        <f>Gyeonggi!E238+Seoul!E238</f>
+        <v>212</v>
+      </c>
+      <c r="F238">
+        <f>Gyeonggi!F238+Seoul!F238</f>
+        <v>171</v>
+      </c>
+      <c r="G238">
+        <f>Gyeonggi!G238+Seoul!G238</f>
+        <v>140</v>
+      </c>
+      <c r="H238">
+        <f>Gyeonggi!H238+Seoul!H238</f>
+        <v>117</v>
+      </c>
+      <c r="I238">
+        <f>Gyeonggi!I238+Seoul!I238</f>
+        <v>57</v>
+      </c>
+      <c r="J238">
+        <f>Gyeonggi!J238+Seoul!J238</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B239">
+        <f>Gyeonggi!B239+Seoul!B239</f>
+        <v>63</v>
+      </c>
+      <c r="C239">
+        <f>Gyeonggi!C239+Seoul!C239</f>
+        <v>100</v>
+      </c>
+      <c r="D239">
+        <f>Gyeonggi!D239+Seoul!D239</f>
+        <v>143</v>
+      </c>
+      <c r="E239">
+        <f>Gyeonggi!E239+Seoul!E239</f>
+        <v>150</v>
+      </c>
+      <c r="F239">
+        <f>Gyeonggi!F239+Seoul!F239</f>
+        <v>134</v>
+      </c>
+      <c r="G239">
+        <f>Gyeonggi!G239+Seoul!G239</f>
+        <v>115</v>
+      </c>
+      <c r="H239">
+        <f>Gyeonggi!H239+Seoul!H239</f>
+        <v>90</v>
+      </c>
+      <c r="I239">
+        <f>Gyeonggi!I239+Seoul!I239</f>
+        <v>50</v>
+      </c>
+      <c r="J239">
+        <f>Gyeonggi!J239+Seoul!J239</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B240">
+        <f>Gyeonggi!B240+Seoul!B240</f>
+        <v>72</v>
+      </c>
+      <c r="C240">
+        <f>Gyeonggi!C240+Seoul!C240</f>
+        <v>105</v>
+      </c>
+      <c r="D240">
+        <f>Gyeonggi!D240+Seoul!D240</f>
+        <v>146</v>
+      </c>
+      <c r="E240">
+        <f>Gyeonggi!E240+Seoul!E240</f>
+        <v>163</v>
+      </c>
+      <c r="F240">
+        <f>Gyeonggi!F240+Seoul!F240</f>
+        <v>158</v>
+      </c>
+      <c r="G240">
+        <f>Gyeonggi!G240+Seoul!G240</f>
+        <v>93</v>
+      </c>
+      <c r="H240">
+        <f>Gyeonggi!H240+Seoul!H240</f>
+        <v>98</v>
+      </c>
+      <c r="I240">
+        <f>Gyeonggi!I240+Seoul!I240</f>
+        <v>36</v>
+      </c>
+      <c r="J240">
+        <f>Gyeonggi!J240+Seoul!J240</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B241">
+        <f>Gyeonggi!B241+Seoul!B241</f>
+        <v>83</v>
+      </c>
+      <c r="C241">
+        <f>Gyeonggi!C241+Seoul!C241</f>
+        <v>118</v>
+      </c>
+      <c r="D241">
+        <f>Gyeonggi!D241+Seoul!D241</f>
+        <v>184</v>
+      </c>
+      <c r="E241">
+        <f>Gyeonggi!E241+Seoul!E241</f>
+        <v>185</v>
+      </c>
+      <c r="F241">
+        <f>Gyeonggi!F241+Seoul!F241</f>
+        <v>181</v>
+      </c>
+      <c r="G241">
+        <f>Gyeonggi!G241+Seoul!G241</f>
+        <v>127</v>
+      </c>
+      <c r="H241">
+        <f>Gyeonggi!H241+Seoul!H241</f>
+        <v>126</v>
+      </c>
+      <c r="I241">
+        <f>Gyeonggi!I241+Seoul!I241</f>
+        <v>55</v>
+      </c>
+      <c r="J241">
+        <f>Gyeonggi!J241+Seoul!J241</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B242">
+        <f>Gyeonggi!B242+Seoul!B242</f>
+        <v>106</v>
+      </c>
+      <c r="C242">
+        <f>Gyeonggi!C242+Seoul!C242</f>
+        <v>169</v>
+      </c>
+      <c r="D242">
+        <f>Gyeonggi!D242+Seoul!D242</f>
+        <v>197</v>
+      </c>
+      <c r="E242">
+        <f>Gyeonggi!E242+Seoul!E242</f>
+        <v>238</v>
+      </c>
+      <c r="F242">
+        <f>Gyeonggi!F242+Seoul!F242</f>
+        <v>206</v>
+      </c>
+      <c r="G242">
+        <f>Gyeonggi!G242+Seoul!G242</f>
+        <v>164</v>
+      </c>
+      <c r="H242">
+        <f>Gyeonggi!H242+Seoul!H242</f>
+        <v>195</v>
+      </c>
+      <c r="I242">
+        <f>Gyeonggi!I242+Seoul!I242</f>
+        <v>112</v>
+      </c>
+      <c r="J242">
+        <f>Gyeonggi!J242+Seoul!J242</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B243">
+        <f>Gyeonggi!B243+Seoul!B243</f>
+        <v>122</v>
+      </c>
+      <c r="C243">
+        <f>Gyeonggi!C243+Seoul!C243</f>
+        <v>136</v>
+      </c>
+      <c r="D243">
+        <f>Gyeonggi!D243+Seoul!D243</f>
+        <v>187</v>
+      </c>
+      <c r="E243">
+        <f>Gyeonggi!E243+Seoul!E243</f>
+        <v>220</v>
+      </c>
+      <c r="F243">
+        <f>Gyeonggi!F243+Seoul!F243</f>
+        <v>201</v>
+      </c>
+      <c r="G243">
+        <f>Gyeonggi!G243+Seoul!G243</f>
+        <v>144</v>
+      </c>
+      <c r="H243">
+        <f>Gyeonggi!H243+Seoul!H243</f>
+        <v>162</v>
+      </c>
+      <c r="I243">
+        <f>Gyeonggi!I243+Seoul!I243</f>
+        <v>75</v>
+      </c>
+      <c r="J243">
+        <f>Gyeonggi!J243+Seoul!J243</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B244">
+        <f>Gyeonggi!B244+Seoul!B244</f>
+        <v>91</v>
+      </c>
+      <c r="C244">
+        <f>Gyeonggi!C244+Seoul!C244</f>
+        <v>135</v>
+      </c>
+      <c r="D244">
+        <f>Gyeonggi!D244+Seoul!D244</f>
+        <v>162</v>
+      </c>
+      <c r="E244">
+        <f>Gyeonggi!E244+Seoul!E244</f>
+        <v>193</v>
+      </c>
+      <c r="F244">
+        <f>Gyeonggi!F244+Seoul!F244</f>
+        <v>176</v>
+      </c>
+      <c r="G244">
+        <f>Gyeonggi!G244+Seoul!G244</f>
+        <v>166</v>
+      </c>
+      <c r="H244">
+        <f>Gyeonggi!H244+Seoul!H244</f>
+        <v>141</v>
+      </c>
+      <c r="I244">
+        <f>Gyeonggi!I244+Seoul!I244</f>
+        <v>61</v>
+      </c>
+      <c r="J244">
+        <f>Gyeonggi!J244+Seoul!J244</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B245">
+        <f>Gyeonggi!B245+Seoul!B245</f>
+        <v>69</v>
+      </c>
+      <c r="C245">
+        <f>Gyeonggi!C245+Seoul!C245</f>
+        <v>96</v>
+      </c>
+      <c r="D245">
+        <f>Gyeonggi!D245+Seoul!D245</f>
+        <v>151</v>
+      </c>
+      <c r="E245">
+        <f>Gyeonggi!E245+Seoul!E245</f>
+        <v>153</v>
+      </c>
+      <c r="F245">
+        <f>Gyeonggi!F245+Seoul!F245</f>
+        <v>142</v>
+      </c>
+      <c r="G245">
+        <f>Gyeonggi!G245+Seoul!G245</f>
+        <v>115</v>
+      </c>
+      <c r="H245">
+        <f>Gyeonggi!H245+Seoul!H245</f>
+        <v>155</v>
+      </c>
+      <c r="I245">
+        <f>Gyeonggi!I245+Seoul!I245</f>
+        <v>73</v>
+      </c>
+      <c r="J245">
+        <f>Gyeonggi!J245+Seoul!J245</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B246">
+        <f>Gyeonggi!B246+Seoul!B246</f>
+        <v>71</v>
+      </c>
+      <c r="C246">
+        <f>Gyeonggi!C246+Seoul!C246</f>
+        <v>58</v>
+      </c>
+      <c r="D246">
+        <f>Gyeonggi!D246+Seoul!D246</f>
+        <v>100</v>
+      </c>
+      <c r="E246">
+        <f>Gyeonggi!E246+Seoul!E246</f>
+        <v>125</v>
+      </c>
+      <c r="F246">
+        <f>Gyeonggi!F246+Seoul!F246</f>
+        <v>115</v>
+      </c>
+      <c r="G246">
+        <f>Gyeonggi!G246+Seoul!G246</f>
+        <v>97</v>
+      </c>
+      <c r="H246">
+        <f>Gyeonggi!H246+Seoul!H246</f>
+        <v>87</v>
+      </c>
+      <c r="I246">
+        <f>Gyeonggi!I246+Seoul!I246</f>
+        <v>44</v>
+      </c>
+      <c r="J246">
+        <f>Gyeonggi!J246+Seoul!J246</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B247">
+        <f>Gyeonggi!B247+Seoul!B247</f>
+        <v>64</v>
+      </c>
+      <c r="C247">
+        <f>Gyeonggi!C247+Seoul!C247</f>
+        <v>87</v>
+      </c>
+      <c r="D247">
+        <f>Gyeonggi!D247+Seoul!D247</f>
+        <v>88</v>
+      </c>
+      <c r="E247">
+        <f>Gyeonggi!E247+Seoul!E247</f>
+        <v>117</v>
+      </c>
+      <c r="F247">
+        <f>Gyeonggi!F247+Seoul!F247</f>
+        <v>96</v>
+      </c>
+      <c r="G247">
+        <f>Gyeonggi!G247+Seoul!G247</f>
+        <v>94</v>
+      </c>
+      <c r="H247">
+        <f>Gyeonggi!H247+Seoul!H247</f>
+        <v>82</v>
+      </c>
+      <c r="I247">
+        <f>Gyeonggi!I247+Seoul!I247</f>
+        <v>36</v>
+      </c>
+      <c r="J247">
+        <f>Gyeonggi!J247+Seoul!J247</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B248">
+        <f>Gyeonggi!B248+Seoul!B248</f>
+        <v>71</v>
+      </c>
+      <c r="C248">
+        <f>Gyeonggi!C248+Seoul!C248</f>
+        <v>131</v>
+      </c>
+      <c r="D248">
+        <f>Gyeonggi!D248+Seoul!D248</f>
+        <v>157</v>
+      </c>
+      <c r="E248">
+        <f>Gyeonggi!E248+Seoul!E248</f>
+        <v>196</v>
+      </c>
+      <c r="F248">
+        <f>Gyeonggi!F248+Seoul!F248</f>
+        <v>178</v>
+      </c>
+      <c r="G248">
+        <f>Gyeonggi!G248+Seoul!G248</f>
+        <v>110</v>
+      </c>
+      <c r="H248">
+        <f>Gyeonggi!H248+Seoul!H248</f>
+        <v>148</v>
+      </c>
+      <c r="I248">
+        <f>Gyeonggi!I248+Seoul!I248</f>
+        <v>57</v>
+      </c>
+      <c r="J248">
+        <f>Gyeonggi!J248+Seoul!J248</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B249">
+        <f>Gyeonggi!B249+Seoul!B249</f>
+        <v>97</v>
+      </c>
+      <c r="C249">
+        <f>Gyeonggi!C249+Seoul!C249</f>
+        <v>127</v>
+      </c>
+      <c r="D249">
+        <f>Gyeonggi!D249+Seoul!D249</f>
+        <v>127</v>
+      </c>
+      <c r="E249">
+        <f>Gyeonggi!E249+Seoul!E249</f>
+        <v>186</v>
+      </c>
+      <c r="F249">
+        <f>Gyeonggi!F249+Seoul!F249</f>
+        <v>141</v>
+      </c>
+      <c r="G249">
+        <f>Gyeonggi!G249+Seoul!G249</f>
+        <v>117</v>
+      </c>
+      <c r="H249">
+        <f>Gyeonggi!H249+Seoul!H249</f>
+        <v>136</v>
+      </c>
+      <c r="I249">
+        <f>Gyeonggi!I249+Seoul!I249</f>
+        <v>67</v>
+      </c>
+      <c r="J249">
+        <f>Gyeonggi!J249+Seoul!J249</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B250">
+        <f>Gyeonggi!B250+Seoul!B250</f>
+        <v>85</v>
+      </c>
+      <c r="C250">
+        <f>Gyeonggi!C250+Seoul!C250</f>
+        <v>134</v>
+      </c>
+      <c r="D250">
+        <f>Gyeonggi!D250+Seoul!D250</f>
+        <v>132</v>
+      </c>
+      <c r="E250">
+        <f>Gyeonggi!E250+Seoul!E250</f>
+        <v>174</v>
+      </c>
+      <c r="F250">
+        <f>Gyeonggi!F250+Seoul!F250</f>
+        <v>156</v>
+      </c>
+      <c r="G250">
+        <f>Gyeonggi!G250+Seoul!G250</f>
+        <v>111</v>
+      </c>
+      <c r="H250">
+        <f>Gyeonggi!H250+Seoul!H250</f>
+        <v>161</v>
+      </c>
+      <c r="I250">
+        <f>Gyeonggi!I250+Seoul!I250</f>
+        <v>62</v>
+      </c>
+      <c r="J250">
+        <f>Gyeonggi!J250+Seoul!J250</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B251">
+        <f>Gyeonggi!B251+Seoul!B251</f>
+        <v>96</v>
+      </c>
+      <c r="C251">
+        <f>Gyeonggi!C251+Seoul!C251</f>
+        <v>147</v>
+      </c>
+      <c r="D251">
+        <f>Gyeonggi!D251+Seoul!D251</f>
+        <v>134</v>
+      </c>
+      <c r="E251">
+        <f>Gyeonggi!E251+Seoul!E251</f>
+        <v>162</v>
+      </c>
+      <c r="F251">
+        <f>Gyeonggi!F251+Seoul!F251</f>
+        <v>134</v>
+      </c>
+      <c r="G251">
+        <f>Gyeonggi!G251+Seoul!G251</f>
+        <v>116</v>
+      </c>
+      <c r="H251">
+        <f>Gyeonggi!H251+Seoul!H251</f>
+        <v>151</v>
+      </c>
+      <c r="I251">
+        <f>Gyeonggi!I251+Seoul!I251</f>
+        <v>70</v>
+      </c>
+      <c r="J251">
+        <f>Gyeonggi!J251+Seoul!J251</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B252">
+        <f>Gyeonggi!B252+Seoul!B252</f>
+        <v>80</v>
+      </c>
+      <c r="C252">
+        <f>Gyeonggi!C252+Seoul!C252</f>
+        <v>155</v>
+      </c>
+      <c r="D252">
+        <f>Gyeonggi!D252+Seoul!D252</f>
+        <v>138</v>
+      </c>
+      <c r="E252">
+        <f>Gyeonggi!E252+Seoul!E252</f>
+        <v>165</v>
+      </c>
+      <c r="F252">
+        <f>Gyeonggi!F252+Seoul!F252</f>
+        <v>151</v>
+      </c>
+      <c r="G252">
+        <f>Gyeonggi!G252+Seoul!G252</f>
+        <v>105</v>
+      </c>
+      <c r="H252">
+        <f>Gyeonggi!H252+Seoul!H252</f>
+        <v>163</v>
+      </c>
+      <c r="I252">
+        <f>Gyeonggi!I252+Seoul!I252</f>
+        <v>52</v>
+      </c>
+      <c r="J252">
+        <f>Gyeonggi!J252+Seoul!J252</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B253">
+        <f>Gyeonggi!B253+Seoul!B253</f>
+        <v>73</v>
+      </c>
+      <c r="C253">
+        <f>Gyeonggi!C253+Seoul!C253</f>
+        <v>132</v>
+      </c>
+      <c r="D253">
+        <f>Gyeonggi!D253+Seoul!D253</f>
+        <v>90</v>
+      </c>
+      <c r="E253">
+        <f>Gyeonggi!E253+Seoul!E253</f>
+        <v>128</v>
+      </c>
+      <c r="F253">
+        <f>Gyeonggi!F253+Seoul!F253</f>
+        <v>124</v>
+      </c>
+      <c r="G253">
+        <f>Gyeonggi!G253+Seoul!G253</f>
+        <v>102</v>
+      </c>
+      <c r="H253">
+        <f>Gyeonggi!H253+Seoul!H253</f>
+        <v>121</v>
+      </c>
+      <c r="I253">
+        <f>Gyeonggi!I253+Seoul!I253</f>
+        <v>55</v>
+      </c>
+      <c r="J253">
+        <f>Gyeonggi!J253+Seoul!J253</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B254">
+        <f>Gyeonggi!B254+Seoul!B254</f>
+        <v>73</v>
+      </c>
+      <c r="C254">
+        <f>Gyeonggi!C254+Seoul!C254</f>
+        <v>134</v>
+      </c>
+      <c r="D254">
+        <f>Gyeonggi!D254+Seoul!D254</f>
+        <v>107</v>
+      </c>
+      <c r="E254">
+        <f>Gyeonggi!E254+Seoul!E254</f>
+        <v>139</v>
+      </c>
+      <c r="F254">
+        <f>Gyeonggi!F254+Seoul!F254</f>
+        <v>120</v>
+      </c>
+      <c r="G254">
+        <f>Gyeonggi!G254+Seoul!G254</f>
+        <v>90</v>
+      </c>
+      <c r="H254">
+        <f>Gyeonggi!H254+Seoul!H254</f>
+        <v>105</v>
+      </c>
+      <c r="I254">
+        <f>Gyeonggi!I254+Seoul!I254</f>
+        <v>45</v>
+      </c>
+      <c r="J254">
+        <f>Gyeonggi!J254+Seoul!J254</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B255">
+        <f>Gyeonggi!B255+Seoul!B255</f>
+        <v>122</v>
+      </c>
+      <c r="C255">
+        <f>Gyeonggi!C255+Seoul!C255</f>
+        <v>224</v>
+      </c>
+      <c r="D255">
+        <f>Gyeonggi!D255+Seoul!D255</f>
+        <v>182</v>
+      </c>
+      <c r="E255">
+        <f>Gyeonggi!E255+Seoul!E255</f>
+        <v>232</v>
+      </c>
+      <c r="F255">
+        <f>Gyeonggi!F255+Seoul!F255</f>
+        <v>211</v>
+      </c>
+      <c r="G255">
+        <f>Gyeonggi!G255+Seoul!G255</f>
+        <v>150</v>
+      </c>
+      <c r="H255">
+        <f>Gyeonggi!H255+Seoul!H255</f>
+        <v>202</v>
+      </c>
+      <c r="I255">
+        <f>Gyeonggi!I255+Seoul!I255</f>
+        <v>94</v>
+      </c>
+      <c r="J255">
+        <f>Gyeonggi!J255+Seoul!J255</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B256">
+        <f>Gyeonggi!B256+Seoul!B256</f>
+        <v>142</v>
+      </c>
+      <c r="C256">
+        <f>Gyeonggi!C256+Seoul!C256</f>
+        <v>205</v>
+      </c>
+      <c r="D256">
+        <f>Gyeonggi!D256+Seoul!D256</f>
+        <v>192</v>
+      </c>
+      <c r="E256">
+        <f>Gyeonggi!E256+Seoul!E256</f>
+        <v>245</v>
+      </c>
+      <c r="F256">
+        <f>Gyeonggi!F256+Seoul!F256</f>
+        <v>205</v>
+      </c>
+      <c r="G256">
+        <f>Gyeonggi!G256+Seoul!G256</f>
+        <v>177</v>
+      </c>
+      <c r="H256">
+        <f>Gyeonggi!H256+Seoul!H256</f>
+        <v>210</v>
+      </c>
+      <c r="I256">
+        <f>Gyeonggi!I256+Seoul!I256</f>
+        <v>89</v>
+      </c>
+      <c r="J256">
+        <f>Gyeonggi!J256+Seoul!J256</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B257">
+        <f>Gyeonggi!B257+Seoul!B257</f>
+        <v>140</v>
+      </c>
+      <c r="C257">
+        <f>Gyeonggi!C257+Seoul!C257</f>
+        <v>220</v>
+      </c>
+      <c r="D257">
+        <f>Gyeonggi!D257+Seoul!D257</f>
+        <v>194</v>
+      </c>
+      <c r="E257">
+        <f>Gyeonggi!E257+Seoul!E257</f>
+        <v>228</v>
+      </c>
+      <c r="F257">
+        <f>Gyeonggi!F257+Seoul!F257</f>
+        <v>195</v>
+      </c>
+      <c r="G257">
+        <f>Gyeonggi!G257+Seoul!G257</f>
+        <v>169</v>
+      </c>
+      <c r="H257">
+        <f>Gyeonggi!H257+Seoul!H257</f>
+        <v>211</v>
+      </c>
+      <c r="I257">
+        <f>Gyeonggi!I257+Seoul!I257</f>
+        <v>111</v>
+      </c>
+      <c r="J257">
+        <f>Gyeonggi!J257+Seoul!J257</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B258">
+        <f>Gyeonggi!B258+Seoul!B258</f>
+        <v>139</v>
+      </c>
+      <c r="C258">
+        <f>Gyeonggi!C258+Seoul!C258</f>
+        <v>176</v>
+      </c>
+      <c r="D258">
+        <f>Gyeonggi!D258+Seoul!D258</f>
+        <v>155</v>
+      </c>
+      <c r="E258">
+        <f>Gyeonggi!E258+Seoul!E258</f>
+        <v>218</v>
+      </c>
+      <c r="F258">
+        <f>Gyeonggi!F258+Seoul!F258</f>
+        <v>204</v>
+      </c>
+      <c r="G258">
+        <f>Gyeonggi!G258+Seoul!G258</f>
+        <v>164</v>
+      </c>
+      <c r="H258">
+        <f>Gyeonggi!H258+Seoul!H258</f>
+        <v>208</v>
+      </c>
+      <c r="I258">
+        <f>Gyeonggi!I258+Seoul!I258</f>
+        <v>97</v>
+      </c>
+      <c r="J258">
+        <f>Gyeonggi!J258+Seoul!J258</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B259">
+        <f>Gyeonggi!B259+Seoul!B259</f>
+        <v>117</v>
+      </c>
+      <c r="C259">
+        <f>Gyeonggi!C259+Seoul!C259</f>
+        <v>190</v>
+      </c>
+      <c r="D259">
+        <f>Gyeonggi!D259+Seoul!D259</f>
+        <v>167</v>
+      </c>
+      <c r="E259">
+        <f>Gyeonggi!E259+Seoul!E259</f>
+        <v>193</v>
+      </c>
+      <c r="F259">
+        <f>Gyeonggi!F259+Seoul!F259</f>
+        <v>209</v>
+      </c>
+      <c r="G259">
+        <f>Gyeonggi!G259+Seoul!G259</f>
+        <v>172</v>
+      </c>
+      <c r="H259">
+        <f>Gyeonggi!H259+Seoul!H259</f>
+        <v>243</v>
+      </c>
+      <c r="I259">
+        <f>Gyeonggi!I259+Seoul!I259</f>
+        <v>112</v>
+      </c>
+      <c r="J259">
+        <f>Gyeonggi!J259+Seoul!J259</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B260">
+        <f>Gyeonggi!B260+Seoul!B260</f>
+        <v>109</v>
+      </c>
+      <c r="C260">
+        <f>Gyeonggi!C260+Seoul!C260</f>
+        <v>152</v>
+      </c>
+      <c r="D260">
+        <f>Gyeonggi!D260+Seoul!D260</f>
+        <v>111</v>
+      </c>
+      <c r="E260">
+        <f>Gyeonggi!E260+Seoul!E260</f>
+        <v>188</v>
+      </c>
+      <c r="F260">
+        <f>Gyeonggi!F260+Seoul!F260</f>
+        <v>146</v>
+      </c>
+      <c r="G260">
+        <f>Gyeonggi!G260+Seoul!G260</f>
+        <v>144</v>
+      </c>
+      <c r="H260">
+        <f>Gyeonggi!H260+Seoul!H260</f>
+        <v>199</v>
+      </c>
+      <c r="I260">
+        <f>Gyeonggi!I260+Seoul!I260</f>
+        <v>88</v>
+      </c>
+      <c r="J260">
+        <f>Gyeonggi!J260+Seoul!J260</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B261">
+        <f>Gyeonggi!B261+Seoul!B261</f>
+        <v>112</v>
+      </c>
+      <c r="C261">
+        <f>Gyeonggi!C261+Seoul!C261</f>
+        <v>172</v>
+      </c>
+      <c r="D261">
+        <f>Gyeonggi!D261+Seoul!D261</f>
+        <v>114</v>
+      </c>
+      <c r="E261">
+        <f>Gyeonggi!E261+Seoul!E261</f>
+        <v>139</v>
+      </c>
+      <c r="F261">
+        <f>Gyeonggi!F261+Seoul!F261</f>
+        <v>145</v>
+      </c>
+      <c r="G261">
+        <f>Gyeonggi!G261+Seoul!G261</f>
+        <v>122</v>
+      </c>
+      <c r="H261">
+        <f>Gyeonggi!H261+Seoul!H261</f>
+        <v>173</v>
+      </c>
+      <c r="I261">
+        <f>Gyeonggi!I261+Seoul!I261</f>
+        <v>76</v>
+      </c>
+      <c r="J261">
+        <f>Gyeonggi!J261+Seoul!J261</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -8631,8 +11138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F15847C-BF25-C644-B62C-91A3E2AC597B}">
   <dimension ref="A1:J562"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:J268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15290,196 +17797,1936 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="1"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="1"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="1"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="1"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="1"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="1"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>44449</v>
+      </c>
+      <c r="B209" s="5">
+        <v>54</v>
+      </c>
+      <c r="C209" s="5">
+        <v>46</v>
+      </c>
+      <c r="D209" s="5">
+        <v>123</v>
+      </c>
+      <c r="E209" s="5">
+        <v>107</v>
+      </c>
+      <c r="F209" s="5">
+        <v>106</v>
+      </c>
+      <c r="G209" s="5">
+        <v>77</v>
+      </c>
+      <c r="H209" s="5">
+        <v>41</v>
+      </c>
+      <c r="I209" s="5">
+        <v>16</v>
+      </c>
+      <c r="J209" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>44450</v>
+      </c>
+      <c r="B210" s="5">
+        <v>50</v>
+      </c>
+      <c r="C210" s="5">
+        <v>52</v>
+      </c>
+      <c r="D210" s="5">
+        <v>81</v>
+      </c>
+      <c r="E210" s="5">
+        <v>83</v>
+      </c>
+      <c r="F210" s="5">
+        <v>108</v>
+      </c>
+      <c r="G210" s="5">
+        <v>49</v>
+      </c>
+      <c r="H210" s="5">
+        <v>44</v>
+      </c>
+      <c r="I210" s="5">
+        <v>14</v>
+      </c>
+      <c r="J210" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>44451</v>
+      </c>
+      <c r="B211" s="5">
+        <v>51</v>
+      </c>
+      <c r="C211" s="5">
+        <v>32</v>
+      </c>
+      <c r="D211" s="5">
+        <v>65</v>
+      </c>
+      <c r="E211" s="5">
+        <v>82</v>
+      </c>
+      <c r="F211" s="5">
+        <v>72</v>
+      </c>
+      <c r="G211" s="5">
+        <v>54</v>
+      </c>
+      <c r="H211" s="5">
+        <v>34</v>
+      </c>
+      <c r="I211" s="5">
+        <v>8</v>
+      </c>
+      <c r="J211" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>44452</v>
+      </c>
+      <c r="B212" s="5">
+        <v>39</v>
+      </c>
+      <c r="C212" s="5">
+        <v>41</v>
+      </c>
+      <c r="D212" s="5">
+        <v>90</v>
+      </c>
+      <c r="E212" s="5">
+        <v>89</v>
+      </c>
+      <c r="F212" s="5">
+        <v>86</v>
+      </c>
+      <c r="G212" s="5">
+        <v>71</v>
+      </c>
+      <c r="H212" s="5">
+        <v>32</v>
+      </c>
+      <c r="I212" s="5">
+        <v>9</v>
+      </c>
+      <c r="J212" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="4">
+        <v>44453</v>
+      </c>
+      <c r="B213" s="5">
+        <v>60</v>
+      </c>
+      <c r="C213" s="5">
+        <v>55</v>
+      </c>
+      <c r="D213" s="5">
+        <v>128</v>
+      </c>
+      <c r="E213" s="5">
+        <v>158</v>
+      </c>
+      <c r="F213" s="5">
+        <v>130</v>
+      </c>
+      <c r="G213" s="5">
+        <v>93</v>
+      </c>
+      <c r="H213" s="5">
+        <v>41</v>
+      </c>
+      <c r="I213" s="5">
+        <v>13</v>
+      </c>
+      <c r="J213" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="4">
+        <v>44454</v>
+      </c>
+      <c r="B214" s="5">
+        <v>53</v>
+      </c>
+      <c r="C214" s="5">
+        <v>67</v>
+      </c>
+      <c r="D214" s="5">
+        <v>126</v>
+      </c>
+      <c r="E214" s="5">
+        <v>136</v>
+      </c>
+      <c r="F214" s="5">
+        <v>124</v>
+      </c>
+      <c r="G214" s="5">
+        <v>73</v>
+      </c>
+      <c r="H214" s="5">
+        <v>46</v>
+      </c>
+      <c r="I214" s="5">
+        <v>20</v>
+      </c>
+      <c r="J214" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="4">
+        <v>44455</v>
+      </c>
+      <c r="B215" s="5">
+        <v>52</v>
+      </c>
+      <c r="C215" s="5">
+        <v>78</v>
+      </c>
+      <c r="D215" s="5">
+        <v>127</v>
+      </c>
+      <c r="E215" s="5">
+        <v>131</v>
+      </c>
+      <c r="F215" s="5">
+        <v>115</v>
+      </c>
+      <c r="G215" s="5">
+        <v>87</v>
+      </c>
+      <c r="H215" s="5">
+        <v>55</v>
+      </c>
+      <c r="I215" s="5">
+        <v>11</v>
+      </c>
+      <c r="J215" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="4">
+        <v>44456</v>
+      </c>
+      <c r="B216" s="5">
+        <v>61</v>
+      </c>
+      <c r="C216" s="5">
+        <v>69</v>
+      </c>
+      <c r="D216" s="5">
+        <v>110</v>
+      </c>
+      <c r="E216" s="5">
+        <v>140</v>
+      </c>
+      <c r="F216" s="5">
+        <v>136</v>
+      </c>
+      <c r="G216" s="5">
+        <v>86</v>
+      </c>
+      <c r="H216" s="5">
+        <v>60</v>
+      </c>
+      <c r="I216" s="5">
+        <v>9</v>
+      </c>
+      <c r="J216" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="4">
+        <v>44457</v>
+      </c>
+      <c r="B217" s="5">
+        <v>48</v>
+      </c>
+      <c r="C217" s="5">
+        <v>52</v>
+      </c>
+      <c r="D217" s="5">
+        <v>96</v>
+      </c>
+      <c r="E217" s="5">
+        <v>109</v>
+      </c>
+      <c r="F217" s="5">
+        <v>126</v>
+      </c>
+      <c r="G217" s="5">
+        <v>59</v>
+      </c>
+      <c r="H217" s="5">
+        <v>39</v>
+      </c>
+      <c r="I217" s="5">
+        <v>13</v>
+      </c>
+      <c r="J217" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="4">
+        <v>44458</v>
+      </c>
+      <c r="B218" s="5">
+        <v>41</v>
+      </c>
+      <c r="C218" s="5">
+        <v>58</v>
+      </c>
+      <c r="D218" s="5">
+        <v>80</v>
+      </c>
+      <c r="E218" s="5">
+        <v>102</v>
+      </c>
+      <c r="F218" s="5">
+        <v>88</v>
+      </c>
+      <c r="G218" s="5">
+        <v>77</v>
+      </c>
+      <c r="H218" s="5">
+        <v>39</v>
+      </c>
+      <c r="I218" s="5">
+        <v>18</v>
+      </c>
+      <c r="J218" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" s="4">
+        <v>44459</v>
+      </c>
+      <c r="B219" s="5">
+        <v>45</v>
+      </c>
+      <c r="C219" s="5">
+        <v>54</v>
+      </c>
+      <c r="D219" s="5">
+        <v>105</v>
+      </c>
+      <c r="E219" s="5">
+        <v>94</v>
+      </c>
+      <c r="F219" s="5">
+        <v>92</v>
+      </c>
+      <c r="G219" s="5">
+        <v>59</v>
+      </c>
+      <c r="H219" s="5">
+        <v>36</v>
+      </c>
+      <c r="I219" s="5">
+        <v>15</v>
+      </c>
+      <c r="J219" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
+        <v>44460</v>
+      </c>
+      <c r="B220" s="5">
+        <v>35</v>
+      </c>
+      <c r="C220" s="5">
+        <v>63</v>
+      </c>
+      <c r="D220" s="5">
+        <v>111</v>
+      </c>
+      <c r="E220" s="5">
+        <v>88</v>
+      </c>
+      <c r="F220" s="5">
+        <v>122</v>
+      </c>
+      <c r="G220" s="5">
+        <v>53</v>
+      </c>
+      <c r="H220" s="5">
+        <v>41</v>
+      </c>
+      <c r="I220" s="5">
+        <v>11</v>
+      </c>
+      <c r="J220" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
+        <v>44461</v>
+      </c>
+      <c r="B221" s="5">
+        <v>34</v>
+      </c>
+      <c r="C221" s="5">
+        <v>44</v>
+      </c>
+      <c r="D221" s="5">
+        <v>109</v>
+      </c>
+      <c r="E221" s="5">
+        <v>118</v>
+      </c>
+      <c r="F221" s="5">
+        <v>113</v>
+      </c>
+      <c r="G221" s="5">
+        <v>64</v>
+      </c>
+      <c r="H221" s="5">
+        <v>46</v>
+      </c>
+      <c r="I221" s="5">
+        <v>11</v>
+      </c>
+      <c r="J221" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
+        <v>44462</v>
+      </c>
+      <c r="B222" s="5">
+        <v>53</v>
+      </c>
+      <c r="C222" s="5">
+        <v>70</v>
+      </c>
+      <c r="D222" s="5">
+        <v>131</v>
+      </c>
+      <c r="E222" s="5">
+        <v>132</v>
+      </c>
+      <c r="F222" s="5">
+        <v>140</v>
+      </c>
+      <c r="G222" s="5">
+        <v>93</v>
+      </c>
+      <c r="H222" s="5">
+        <v>53</v>
+      </c>
+      <c r="I222" s="5">
+        <v>28</v>
+      </c>
+      <c r="J222" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
+        <v>44463</v>
+      </c>
+      <c r="B223" s="5">
+        <v>89</v>
+      </c>
+      <c r="C223" s="5">
+        <v>112</v>
+      </c>
+      <c r="D223" s="5">
+        <v>216</v>
+      </c>
+      <c r="E223" s="5">
+        <v>246</v>
+      </c>
+      <c r="F223" s="5">
+        <v>201</v>
+      </c>
+      <c r="G223" s="5">
+        <v>111</v>
+      </c>
+      <c r="H223" s="5">
+        <v>70</v>
+      </c>
+      <c r="I223" s="5">
+        <v>30</v>
+      </c>
+      <c r="J223" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" s="4">
+        <v>44464</v>
+      </c>
+      <c r="B224" s="5">
+        <v>77</v>
+      </c>
+      <c r="C224" s="5">
+        <v>91</v>
+      </c>
+      <c r="D224" s="5">
+        <v>203</v>
+      </c>
+      <c r="E224" s="5">
+        <v>176</v>
+      </c>
+      <c r="F224" s="5">
+        <v>166</v>
+      </c>
+      <c r="G224" s="5">
+        <v>100</v>
+      </c>
+      <c r="H224" s="5">
+        <v>62</v>
+      </c>
+      <c r="I224" s="5">
+        <v>31</v>
+      </c>
+      <c r="J224" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" s="4">
+        <v>44465</v>
+      </c>
+      <c r="B225" s="5">
+        <v>75</v>
+      </c>
+      <c r="C225" s="5">
+        <v>87</v>
+      </c>
+      <c r="D225" s="5">
+        <v>157</v>
+      </c>
+      <c r="E225" s="5">
+        <v>125</v>
+      </c>
+      <c r="F225" s="5">
+        <v>135</v>
+      </c>
+      <c r="G225" s="5">
+        <v>84</v>
+      </c>
+      <c r="H225" s="5">
+        <v>45</v>
+      </c>
+      <c r="I225" s="5">
+        <v>23</v>
+      </c>
+      <c r="J225" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226" s="4">
+        <v>44466</v>
+      </c>
+      <c r="B226" s="5">
+        <v>57</v>
+      </c>
+      <c r="C226" s="5">
+        <v>73</v>
+      </c>
+      <c r="D226" s="5">
+        <v>156</v>
+      </c>
+      <c r="E226" s="5">
+        <v>140</v>
+      </c>
+      <c r="F226" s="5">
+        <v>115</v>
+      </c>
+      <c r="G226" s="5">
+        <v>75</v>
+      </c>
+      <c r="H226" s="5">
+        <v>57</v>
+      </c>
+      <c r="I226" s="5">
+        <v>26</v>
+      </c>
+      <c r="J226" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
+        <v>44467</v>
+      </c>
+      <c r="B227" s="5">
+        <v>66</v>
+      </c>
+      <c r="C227" s="5">
+        <v>111</v>
+      </c>
+      <c r="D227" s="5">
+        <v>224</v>
+      </c>
+      <c r="E227" s="5">
+        <v>192</v>
+      </c>
+      <c r="F227" s="5">
+        <v>169</v>
+      </c>
+      <c r="G227" s="5">
+        <v>101</v>
+      </c>
+      <c r="H227" s="5">
+        <v>75</v>
+      </c>
+      <c r="I227" s="5">
+        <v>32</v>
+      </c>
+      <c r="J227" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
+        <v>44468</v>
+      </c>
+      <c r="B228" s="5">
+        <v>52</v>
+      </c>
+      <c r="C228" s="5">
+        <v>89</v>
+      </c>
+      <c r="D228" s="5">
+        <v>197</v>
+      </c>
+      <c r="E228" s="5">
+        <v>172</v>
+      </c>
+      <c r="F228" s="5">
+        <v>150</v>
+      </c>
+      <c r="G228" s="5">
+        <v>98</v>
+      </c>
+      <c r="H228" s="5">
+        <v>76</v>
+      </c>
+      <c r="I228" s="5">
+        <v>25</v>
+      </c>
+      <c r="J228" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
+        <v>44469</v>
+      </c>
+      <c r="B229" s="5">
+        <v>54</v>
+      </c>
+      <c r="C229" s="5">
+        <v>101</v>
+      </c>
+      <c r="D229" s="5">
+        <v>197</v>
+      </c>
+      <c r="E229" s="5">
+        <v>162</v>
+      </c>
+      <c r="F229" s="5">
+        <v>121</v>
+      </c>
+      <c r="G229" s="5">
+        <v>104</v>
+      </c>
+      <c r="H229" s="5">
+        <v>55</v>
+      </c>
+      <c r="I229" s="5">
+        <v>25</v>
+      </c>
+      <c r="J229" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>44470</v>
+      </c>
+      <c r="B230" s="5">
+        <v>61</v>
+      </c>
+      <c r="C230" s="5">
+        <v>86</v>
+      </c>
+      <c r="D230" s="5">
+        <v>166</v>
+      </c>
+      <c r="E230" s="5">
+        <v>141</v>
+      </c>
+      <c r="F230" s="5">
+        <v>128</v>
+      </c>
+      <c r="G230" s="5">
+        <v>75</v>
+      </c>
+      <c r="H230" s="5">
+        <v>56</v>
+      </c>
+      <c r="I230" s="5">
+        <v>35</v>
+      </c>
+      <c r="J230" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>44471</v>
+      </c>
+      <c r="B231" s="5">
+        <v>42</v>
+      </c>
+      <c r="C231" s="5">
+        <v>73</v>
+      </c>
+      <c r="D231" s="5">
+        <v>142</v>
+      </c>
+      <c r="E231" s="5">
+        <v>149</v>
+      </c>
+      <c r="F231" s="5">
+        <v>103</v>
+      </c>
+      <c r="G231" s="5">
+        <v>85</v>
+      </c>
+      <c r="H231" s="5">
+        <v>57</v>
+      </c>
+      <c r="I231" s="5">
+        <v>18</v>
+      </c>
+      <c r="J231" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>44472</v>
+      </c>
+      <c r="B232" s="5">
+        <v>33</v>
+      </c>
+      <c r="C232" s="5">
+        <v>80</v>
+      </c>
+      <c r="D232" s="5">
+        <v>121</v>
+      </c>
+      <c r="E232" s="5">
+        <v>94</v>
+      </c>
+      <c r="F232" s="5">
+        <v>80</v>
+      </c>
+      <c r="G232" s="5">
+        <v>56</v>
+      </c>
+      <c r="H232" s="5">
+        <v>48</v>
+      </c>
+      <c r="I232" s="5">
+        <v>9</v>
+      </c>
+      <c r="J232" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>44473</v>
+      </c>
+      <c r="B233" s="5">
+        <v>27</v>
+      </c>
+      <c r="C233" s="5">
+        <v>58</v>
+      </c>
+      <c r="D233" s="5">
+        <v>93</v>
+      </c>
+      <c r="E233" s="5">
+        <v>98</v>
+      </c>
+      <c r="F233" s="5">
+        <v>103</v>
+      </c>
+      <c r="G233" s="5">
+        <v>56</v>
+      </c>
+      <c r="H233" s="5">
+        <v>36</v>
+      </c>
+      <c r="I233" s="5">
+        <v>22</v>
+      </c>
+      <c r="J233" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>44474</v>
+      </c>
+      <c r="B234" s="5">
+        <v>45</v>
+      </c>
+      <c r="C234" s="5">
+        <v>84</v>
+      </c>
+      <c r="D234" s="5">
+        <v>131</v>
+      </c>
+      <c r="E234" s="5">
+        <v>137</v>
+      </c>
+      <c r="F234" s="5">
+        <v>114</v>
+      </c>
+      <c r="G234" s="5">
+        <v>91</v>
+      </c>
+      <c r="H234" s="5">
+        <v>49</v>
+      </c>
+      <c r="I234" s="5">
+        <v>15</v>
+      </c>
+      <c r="J234" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
+        <v>44475</v>
+      </c>
+      <c r="B235" s="5">
+        <v>57</v>
+      </c>
+      <c r="C235" s="5">
+        <v>93</v>
+      </c>
+      <c r="D235" s="5">
+        <v>162</v>
+      </c>
+      <c r="E235" s="5">
+        <v>167</v>
+      </c>
+      <c r="F235" s="5">
+        <v>143</v>
+      </c>
+      <c r="G235" s="5">
+        <v>107</v>
+      </c>
+      <c r="H235" s="5">
+        <v>82</v>
+      </c>
+      <c r="I235" s="5">
+        <v>32</v>
+      </c>
+      <c r="J235" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
+        <v>44476</v>
+      </c>
+      <c r="B236" s="5">
+        <v>65</v>
+      </c>
+      <c r="C236" s="5">
+        <v>81</v>
+      </c>
+      <c r="D236" s="5">
+        <v>147</v>
+      </c>
+      <c r="E236" s="5">
+        <v>141</v>
+      </c>
+      <c r="F236" s="5">
+        <v>122</v>
+      </c>
+      <c r="G236" s="5">
+        <v>95</v>
+      </c>
+      <c r="H236" s="5">
+        <v>58</v>
+      </c>
+      <c r="I236" s="5">
+        <v>25</v>
+      </c>
+      <c r="J236" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
+        <v>44477</v>
+      </c>
+      <c r="B237" s="5">
+        <v>54</v>
+      </c>
+      <c r="C237" s="5">
+        <v>68</v>
+      </c>
+      <c r="D237" s="5">
+        <v>92</v>
+      </c>
+      <c r="E237" s="5">
+        <v>115</v>
+      </c>
+      <c r="F237" s="5">
+        <v>113</v>
+      </c>
+      <c r="G237" s="5">
+        <v>85</v>
+      </c>
+      <c r="H237" s="5">
+        <v>73</v>
+      </c>
+      <c r="I237" s="5">
+        <v>22</v>
+      </c>
+      <c r="J237" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
+        <v>44478</v>
+      </c>
+      <c r="B238" s="5">
+        <v>50</v>
+      </c>
+      <c r="C238" s="5">
+        <v>50</v>
+      </c>
+      <c r="D238" s="5">
+        <v>97</v>
+      </c>
+      <c r="E238" s="5">
+        <v>110</v>
+      </c>
+      <c r="F238" s="5">
+        <v>90</v>
+      </c>
+      <c r="G238" s="5">
+        <v>76</v>
+      </c>
+      <c r="H238" s="5">
+        <v>45</v>
+      </c>
+      <c r="I238" s="5">
+        <v>18</v>
+      </c>
+      <c r="J238" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
+        <v>44479</v>
+      </c>
+      <c r="B239" s="5">
+        <v>31</v>
+      </c>
+      <c r="C239" s="5">
+        <v>41</v>
+      </c>
+      <c r="D239" s="5">
+        <v>64</v>
+      </c>
+      <c r="E239" s="5">
+        <v>71</v>
+      </c>
+      <c r="F239" s="5">
+        <v>55</v>
+      </c>
+      <c r="G239" s="5">
+        <v>43</v>
+      </c>
+      <c r="H239" s="5">
+        <v>25</v>
+      </c>
+      <c r="I239" s="5">
+        <v>18</v>
+      </c>
+      <c r="J239" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
+        <v>44480</v>
+      </c>
+      <c r="B240" s="5">
+        <v>41</v>
+      </c>
+      <c r="C240" s="5">
+        <v>42</v>
+      </c>
+      <c r="D240" s="5">
+        <v>71</v>
+      </c>
+      <c r="E240" s="5">
+        <v>86</v>
+      </c>
+      <c r="F240" s="5">
+        <v>77</v>
+      </c>
+      <c r="G240" s="5">
+        <v>40</v>
+      </c>
+      <c r="H240" s="5">
+        <v>39</v>
+      </c>
+      <c r="I240" s="5">
+        <v>9</v>
+      </c>
+      <c r="J240" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
+        <v>44481</v>
+      </c>
+      <c r="B241" s="5">
+        <v>41</v>
+      </c>
+      <c r="C241" s="5">
+        <v>58</v>
+      </c>
+      <c r="D241" s="5">
+        <v>89</v>
+      </c>
+      <c r="E241" s="5">
+        <v>92</v>
+      </c>
+      <c r="F241" s="5">
+        <v>89</v>
+      </c>
+      <c r="G241" s="5">
+        <v>52</v>
+      </c>
+      <c r="H241" s="5">
+        <v>43</v>
+      </c>
+      <c r="I241" s="5">
+        <v>23</v>
+      </c>
+      <c r="J241" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>44482</v>
+      </c>
+      <c r="B242" s="5">
+        <v>57</v>
+      </c>
+      <c r="C242" s="5">
+        <v>80</v>
+      </c>
+      <c r="D242" s="5">
+        <v>101</v>
+      </c>
+      <c r="E242" s="5">
+        <v>122</v>
+      </c>
+      <c r="F242" s="5">
+        <v>98</v>
+      </c>
+      <c r="G242" s="5">
+        <v>74</v>
+      </c>
+      <c r="H242" s="5">
+        <v>88</v>
+      </c>
+      <c r="I242" s="5">
+        <v>37</v>
+      </c>
+      <c r="J242" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>44483</v>
+      </c>
+      <c r="B243" s="5">
+        <v>52</v>
+      </c>
+      <c r="C243" s="5">
+        <v>67</v>
+      </c>
+      <c r="D243" s="5">
+        <v>91</v>
+      </c>
+      <c r="E243" s="5">
+        <v>117</v>
+      </c>
+      <c r="F243" s="5">
+        <v>103</v>
+      </c>
+      <c r="G243" s="5">
+        <v>62</v>
+      </c>
+      <c r="H243" s="5">
+        <v>69</v>
+      </c>
+      <c r="I243" s="5">
+        <v>28</v>
+      </c>
+      <c r="J243" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
+        <v>44484</v>
+      </c>
+      <c r="B244" s="5">
+        <v>53</v>
+      </c>
+      <c r="C244" s="5">
+        <v>73</v>
+      </c>
+      <c r="D244" s="5">
+        <v>86</v>
+      </c>
+      <c r="E244" s="5">
+        <v>94</v>
+      </c>
+      <c r="F244" s="5">
+        <v>89</v>
+      </c>
+      <c r="G244" s="5">
+        <v>77</v>
+      </c>
+      <c r="H244" s="5">
+        <v>53</v>
+      </c>
+      <c r="I244" s="5">
+        <v>32</v>
+      </c>
+      <c r="J244" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" s="4">
+        <v>44485</v>
+      </c>
+      <c r="B245" s="5">
+        <v>39</v>
+      </c>
+      <c r="C245" s="5">
+        <v>52</v>
+      </c>
+      <c r="D245" s="5">
+        <v>76</v>
+      </c>
+      <c r="E245" s="5">
+        <v>76</v>
+      </c>
+      <c r="F245" s="5">
+        <v>76</v>
+      </c>
+      <c r="G245" s="5">
+        <v>53</v>
+      </c>
+      <c r="H245" s="5">
+        <v>62</v>
+      </c>
+      <c r="I245" s="5">
+        <v>28</v>
+      </c>
+      <c r="J245" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
+        <v>44486</v>
+      </c>
+      <c r="B246" s="5">
+        <v>43</v>
+      </c>
+      <c r="C246" s="5">
+        <v>23</v>
+      </c>
+      <c r="D246" s="5">
+        <v>54</v>
+      </c>
+      <c r="E246" s="5">
+        <v>70</v>
+      </c>
+      <c r="F246" s="5">
+        <v>61</v>
+      </c>
+      <c r="G246" s="5">
+        <v>48</v>
+      </c>
+      <c r="H246" s="5">
+        <v>38</v>
+      </c>
+      <c r="I246" s="5">
+        <v>14</v>
+      </c>
+      <c r="J246" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
+        <v>44487</v>
+      </c>
+      <c r="B247" s="5">
+        <v>46</v>
+      </c>
+      <c r="C247" s="5">
+        <v>52</v>
+      </c>
+      <c r="D247" s="5">
+        <v>55</v>
+      </c>
+      <c r="E247" s="5">
+        <v>69</v>
+      </c>
+      <c r="F247" s="5">
+        <v>59</v>
+      </c>
+      <c r="G247" s="5">
+        <v>45</v>
+      </c>
+      <c r="H247" s="5">
+        <v>42</v>
+      </c>
+      <c r="I247" s="5">
+        <v>13</v>
+      </c>
+      <c r="J247" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
+        <v>44488</v>
+      </c>
+      <c r="B248" s="5">
+        <v>45</v>
+      </c>
+      <c r="C248" s="5">
+        <v>71</v>
+      </c>
+      <c r="D248" s="5">
+        <v>84</v>
+      </c>
+      <c r="E248" s="5">
+        <v>112</v>
+      </c>
+      <c r="F248" s="5">
+        <v>114</v>
+      </c>
+      <c r="G248" s="5">
+        <v>53</v>
+      </c>
+      <c r="H248" s="5">
+        <v>66</v>
+      </c>
+      <c r="I248" s="5">
+        <v>20</v>
+      </c>
+      <c r="J248" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="4">
+        <v>44489</v>
+      </c>
+      <c r="B249" s="5">
+        <v>51</v>
+      </c>
+      <c r="C249" s="5">
+        <v>69</v>
+      </c>
+      <c r="D249" s="5">
+        <v>72</v>
+      </c>
+      <c r="E249" s="5">
+        <v>86</v>
+      </c>
+      <c r="F249" s="5">
+        <v>83</v>
+      </c>
+      <c r="G249" s="5">
+        <v>56</v>
+      </c>
+      <c r="H249" s="5">
+        <v>65</v>
+      </c>
+      <c r="I249" s="5">
+        <v>26</v>
+      </c>
+      <c r="J249" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
+        <v>44490</v>
+      </c>
+      <c r="B250" s="5">
+        <v>48</v>
+      </c>
+      <c r="C250" s="5">
+        <v>78</v>
+      </c>
+      <c r="D250" s="5">
+        <v>76</v>
+      </c>
+      <c r="E250" s="5">
+        <v>83</v>
+      </c>
+      <c r="F250" s="5">
+        <v>78</v>
+      </c>
+      <c r="G250" s="5">
+        <v>55</v>
+      </c>
+      <c r="H250" s="5">
+        <v>68</v>
+      </c>
+      <c r="I250" s="5">
+        <v>25</v>
+      </c>
+      <c r="J250" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A251" s="4">
+        <v>44491</v>
+      </c>
+      <c r="B251" s="5">
+        <v>49</v>
+      </c>
+      <c r="C251" s="5">
+        <v>90</v>
+      </c>
+      <c r="D251" s="5">
+        <v>74</v>
+      </c>
+      <c r="E251" s="5">
+        <v>75</v>
+      </c>
+      <c r="F251" s="5">
+        <v>71</v>
+      </c>
+      <c r="G251" s="5">
+        <v>60</v>
+      </c>
+      <c r="H251" s="5">
+        <v>60</v>
+      </c>
+      <c r="I251" s="5">
+        <v>23</v>
+      </c>
+      <c r="J251" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252" s="4">
+        <v>44492</v>
+      </c>
+      <c r="B252" s="5">
+        <v>40</v>
+      </c>
+      <c r="C252" s="5">
+        <v>89</v>
+      </c>
+      <c r="D252" s="5">
+        <v>85</v>
+      </c>
+      <c r="E252" s="5">
+        <v>80</v>
+      </c>
+      <c r="F252" s="5">
+        <v>72</v>
+      </c>
+      <c r="G252" s="5">
+        <v>55</v>
+      </c>
+      <c r="H252" s="5">
+        <v>61</v>
+      </c>
+      <c r="I252" s="5">
+        <v>17</v>
+      </c>
+      <c r="J252" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A253" s="4">
+        <v>44493</v>
+      </c>
+      <c r="B253" s="5">
+        <v>40</v>
+      </c>
+      <c r="C253" s="5">
+        <v>73</v>
+      </c>
+      <c r="D253" s="5">
+        <v>52</v>
+      </c>
+      <c r="E253" s="5">
+        <v>59</v>
+      </c>
+      <c r="F253" s="5">
+        <v>60</v>
+      </c>
+      <c r="G253" s="5">
+        <v>38</v>
+      </c>
+      <c r="H253" s="5">
+        <v>43</v>
+      </c>
+      <c r="I253" s="5">
+        <v>20</v>
+      </c>
+      <c r="J253" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A254" s="4">
+        <v>44494</v>
+      </c>
+      <c r="B254" s="5">
+        <v>45</v>
+      </c>
+      <c r="C254" s="5">
+        <v>74</v>
+      </c>
+      <c r="D254" s="5">
+        <v>54</v>
+      </c>
+      <c r="E254" s="5">
+        <v>64</v>
+      </c>
+      <c r="F254" s="5">
+        <v>58</v>
+      </c>
+      <c r="G254" s="5">
+        <v>40</v>
+      </c>
+      <c r="H254" s="5">
+        <v>50</v>
+      </c>
+      <c r="I254" s="5">
+        <v>18</v>
+      </c>
+      <c r="J254" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A255" s="4">
+        <v>44495</v>
+      </c>
+      <c r="B255" s="5">
+        <v>63</v>
+      </c>
+      <c r="C255" s="5">
+        <v>125</v>
+      </c>
+      <c r="D255" s="5">
+        <v>98</v>
+      </c>
+      <c r="E255" s="5">
+        <v>114</v>
+      </c>
+      <c r="F255" s="5">
+        <v>121</v>
+      </c>
+      <c r="G255" s="5">
+        <v>60</v>
+      </c>
+      <c r="H255" s="5">
+        <v>95</v>
+      </c>
+      <c r="I255" s="5">
+        <v>35</v>
+      </c>
+      <c r="J255" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A256" s="4">
+        <v>44496</v>
+      </c>
+      <c r="B256" s="5">
+        <v>74</v>
+      </c>
+      <c r="C256" s="5">
+        <v>122</v>
+      </c>
+      <c r="D256" s="5">
+        <v>89</v>
+      </c>
+      <c r="E256" s="5">
+        <v>116</v>
+      </c>
+      <c r="F256" s="5">
+        <v>115</v>
+      </c>
+      <c r="G256" s="5">
+        <v>78</v>
+      </c>
+      <c r="H256" s="5">
+        <v>80</v>
+      </c>
+      <c r="I256" s="5">
+        <v>34</v>
+      </c>
+      <c r="J256" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A257" s="4">
+        <v>44497</v>
+      </c>
+      <c r="B257" s="5">
+        <v>81</v>
+      </c>
+      <c r="C257" s="5">
+        <v>140</v>
+      </c>
+      <c r="D257" s="5">
+        <v>104</v>
+      </c>
+      <c r="E257" s="5">
+        <v>108</v>
+      </c>
+      <c r="F257" s="5">
+        <v>102</v>
+      </c>
+      <c r="G257" s="5">
+        <v>73</v>
+      </c>
+      <c r="H257" s="5">
+        <v>88</v>
+      </c>
+      <c r="I257" s="5">
+        <v>37</v>
+      </c>
+      <c r="J257" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A258" s="4">
+        <v>44498</v>
+      </c>
+      <c r="B258" s="5">
+        <v>83</v>
+      </c>
+      <c r="C258" s="5">
+        <v>106</v>
+      </c>
+      <c r="D258" s="5">
+        <v>81</v>
+      </c>
+      <c r="E258" s="5">
+        <v>121</v>
+      </c>
+      <c r="F258" s="5">
+        <v>109</v>
+      </c>
+      <c r="G258" s="5">
+        <v>76</v>
+      </c>
+      <c r="H258" s="5">
+        <v>80</v>
+      </c>
+      <c r="I258" s="5">
+        <v>37</v>
+      </c>
+      <c r="J258" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A259" s="4">
+        <v>44499</v>
+      </c>
+      <c r="B259" s="5">
+        <v>65</v>
+      </c>
+      <c r="C259" s="5">
+        <v>113</v>
+      </c>
+      <c r="D259" s="5">
+        <v>77</v>
+      </c>
+      <c r="E259" s="5">
+        <v>95</v>
+      </c>
+      <c r="F259" s="5">
+        <v>106</v>
+      </c>
+      <c r="G259" s="5">
+        <v>73</v>
+      </c>
+      <c r="H259" s="5">
+        <v>96</v>
+      </c>
+      <c r="I259" s="5">
+        <v>44</v>
+      </c>
+      <c r="J259" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A260" s="4">
+        <v>44500</v>
+      </c>
+      <c r="B260" s="5">
+        <v>66</v>
+      </c>
+      <c r="C260" s="5">
+        <v>76</v>
+      </c>
+      <c r="D260" s="5">
+        <v>44</v>
+      </c>
+      <c r="E260" s="5">
+        <v>91</v>
+      </c>
+      <c r="F260" s="5">
+        <v>68</v>
+      </c>
+      <c r="G260" s="5">
+        <v>70</v>
+      </c>
+      <c r="H260" s="5">
+        <v>72</v>
+      </c>
+      <c r="I260" s="5">
+        <v>35</v>
+      </c>
+      <c r="J260" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A261" s="4">
+        <v>44501</v>
+      </c>
+      <c r="B261" s="5">
+        <v>51</v>
+      </c>
+      <c r="C261" s="5">
+        <v>87</v>
+      </c>
+      <c r="D261" s="5">
+        <v>54</v>
+      </c>
+      <c r="E261" s="5">
+        <v>70</v>
+      </c>
+      <c r="F261" s="5">
+        <v>82</v>
+      </c>
+      <c r="G261" s="5">
+        <v>44</v>
+      </c>
+      <c r="H261" s="5">
+        <v>67</v>
+      </c>
+      <c r="I261" s="5">
+        <v>25</v>
+      </c>
+      <c r="J261" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A262" s="4">
+        <v>44502</v>
+      </c>
+      <c r="B262" s="5">
+        <v>73</v>
+      </c>
+      <c r="C262" s="5">
+        <v>177</v>
+      </c>
+      <c r="D262" s="5">
+        <v>79</v>
+      </c>
+      <c r="E262" s="5">
+        <v>129</v>
+      </c>
+      <c r="F262" s="5">
+        <v>102</v>
+      </c>
+      <c r="G262" s="5">
+        <v>94</v>
+      </c>
+      <c r="H262" s="5">
+        <v>133</v>
+      </c>
+      <c r="I262" s="5">
+        <v>52</v>
+      </c>
+      <c r="J262" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A263" s="4">
+        <v>44503</v>
+      </c>
+      <c r="B263" s="5">
+        <v>74</v>
+      </c>
+      <c r="C263" s="5">
+        <v>135</v>
+      </c>
+      <c r="D263" s="5">
+        <v>75</v>
+      </c>
+      <c r="E263" s="5">
+        <v>115</v>
+      </c>
+      <c r="F263" s="5">
+        <v>102</v>
+      </c>
+      <c r="G263" s="5">
+        <v>108</v>
+      </c>
+      <c r="H263" s="5">
+        <v>143</v>
+      </c>
+      <c r="I263" s="5">
+        <v>66</v>
+      </c>
+      <c r="J263" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A264" s="4">
+        <v>44504</v>
+      </c>
+      <c r="B264" s="5">
+        <v>90</v>
+      </c>
+      <c r="C264" s="5">
+        <v>121</v>
+      </c>
+      <c r="D264" s="5">
+        <v>56</v>
+      </c>
+      <c r="E264" s="5">
+        <v>114</v>
+      </c>
+      <c r="F264" s="5">
+        <v>105</v>
+      </c>
+      <c r="G264" s="5">
+        <v>87</v>
+      </c>
+      <c r="H264" s="5">
+        <v>111</v>
+      </c>
+      <c r="I264" s="5">
+        <v>56</v>
+      </c>
+      <c r="J264" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>44505</v>
+      </c>
+      <c r="B265" s="5">
+        <v>81</v>
+      </c>
+      <c r="C265" s="5">
+        <v>115</v>
+      </c>
+      <c r="D265" s="5">
+        <v>56</v>
+      </c>
+      <c r="E265" s="5">
+        <v>114</v>
+      </c>
+      <c r="F265" s="5">
+        <v>99</v>
+      </c>
+      <c r="G265" s="5">
+        <v>63</v>
+      </c>
+      <c r="H265" s="5">
+        <v>96</v>
+      </c>
+      <c r="I265" s="5">
+        <v>33</v>
+      </c>
+      <c r="J265" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A266" s="4">
+        <v>44506</v>
+      </c>
+      <c r="B266" s="5">
+        <v>63</v>
+      </c>
+      <c r="C266" s="5">
+        <v>81</v>
+      </c>
+      <c r="D266" s="5">
+        <v>44</v>
+      </c>
+      <c r="E266" s="5">
+        <v>114</v>
+      </c>
+      <c r="F266" s="5">
+        <v>91</v>
+      </c>
+      <c r="G266" s="5">
+        <v>92</v>
+      </c>
+      <c r="H266" s="5">
+        <v>113</v>
+      </c>
+      <c r="I266" s="5">
+        <v>58</v>
+      </c>
+      <c r="J266" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A267" s="4">
+        <v>44507</v>
+      </c>
+      <c r="B267" s="5">
+        <v>56</v>
+      </c>
+      <c r="C267" s="5">
+        <v>74</v>
+      </c>
+      <c r="D267" s="5">
+        <v>16</v>
+      </c>
+      <c r="E267" s="5">
+        <v>114</v>
+      </c>
+      <c r="F267" s="5">
+        <v>80</v>
+      </c>
+      <c r="G267" s="5">
+        <v>63</v>
+      </c>
+      <c r="H267" s="5">
+        <v>75</v>
+      </c>
+      <c r="I267" s="5">
+        <v>39</v>
+      </c>
+      <c r="J267" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A268" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B268" s="5">
+        <v>87</v>
+      </c>
+      <c r="C268" s="5">
+        <v>67</v>
+      </c>
+      <c r="D268" s="5">
+        <v>9</v>
+      </c>
+      <c r="E268" s="5">
+        <v>114</v>
+      </c>
+      <c r="F268" s="5">
+        <v>56</v>
+      </c>
+      <c r="G268" s="5">
+        <v>75</v>
+      </c>
+      <c r="H268" s="5">
+        <v>62</v>
+      </c>
+      <c r="I268" s="5">
+        <v>29</v>
+      </c>
+      <c r="J268" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
@@ -16361,8 +20608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A71476-9D4C-5143-A8A9-0CE4866D48A6}">
   <dimension ref="A1:J565"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="J204" sqref="J204"/>
+    <sheetView topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:J261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22741,219 +26988,1988 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B201">
+        <v>28</v>
+      </c>
+      <c r="C201">
+        <v>36</v>
+      </c>
+      <c r="D201">
+        <v>122</v>
+      </c>
+      <c r="E201">
+        <v>103</v>
+      </c>
+      <c r="F201">
+        <v>101</v>
+      </c>
+      <c r="G201">
+        <v>68</v>
+      </c>
+      <c r="H201">
+        <v>57</v>
+      </c>
+      <c r="I201">
+        <v>18</v>
+      </c>
+      <c r="J201">
+        <v>9</v>
+      </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B202">
+        <v>31</v>
+      </c>
+      <c r="C202">
+        <v>55</v>
+      </c>
+      <c r="D202">
+        <v>139</v>
+      </c>
+      <c r="E202">
+        <v>94</v>
+      </c>
+      <c r="F202">
+        <v>89</v>
+      </c>
+      <c r="G202">
+        <v>82</v>
+      </c>
+      <c r="H202">
+        <v>45</v>
+      </c>
+      <c r="I202">
+        <v>24</v>
+      </c>
+      <c r="J202">
+        <v>6</v>
+      </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B203">
+        <v>40</v>
+      </c>
+      <c r="C203">
+        <v>34</v>
+      </c>
+      <c r="D203">
+        <v>118</v>
+      </c>
+      <c r="E203">
+        <v>82</v>
+      </c>
+      <c r="F203">
+        <v>87</v>
+      </c>
+      <c r="G203">
+        <v>69</v>
+      </c>
+      <c r="H203">
+        <v>55</v>
+      </c>
+      <c r="I203">
+        <v>15</v>
+      </c>
+      <c r="J203">
+        <v>8</v>
+      </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B204">
+        <v>29</v>
+      </c>
+      <c r="C204">
+        <v>41</v>
+      </c>
+      <c r="D204">
+        <v>90</v>
+      </c>
+      <c r="E204">
+        <v>96</v>
+      </c>
+      <c r="F204">
+        <v>83</v>
+      </c>
+      <c r="G204">
+        <v>80</v>
+      </c>
+      <c r="H204">
+        <v>30</v>
+      </c>
+      <c r="I204">
+        <v>8</v>
+      </c>
+      <c r="J204">
+        <v>7</v>
+      </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B205">
+        <v>28</v>
+      </c>
+      <c r="C205">
+        <v>28</v>
+      </c>
+      <c r="D205">
+        <v>116</v>
+      </c>
+      <c r="E205">
+        <v>91</v>
+      </c>
+      <c r="F205">
+        <v>90</v>
+      </c>
+      <c r="G205">
+        <v>69</v>
+      </c>
+      <c r="H205">
+        <v>46</v>
+      </c>
+      <c r="I205">
+        <v>13</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B206">
+        <v>24</v>
+      </c>
+      <c r="C206">
+        <v>60</v>
+      </c>
+      <c r="D206">
+        <v>149</v>
+      </c>
+      <c r="E206">
+        <v>126</v>
+      </c>
+      <c r="F206">
+        <v>131</v>
+      </c>
+      <c r="G206">
+        <v>100</v>
+      </c>
+      <c r="H206">
+        <v>62</v>
+      </c>
+      <c r="I206">
+        <v>13</v>
+      </c>
+      <c r="J206">
+        <v>6</v>
+      </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B207">
+        <v>32</v>
+      </c>
+      <c r="C207">
+        <v>42</v>
+      </c>
+      <c r="D207">
+        <v>173</v>
+      </c>
+      <c r="E207">
+        <v>121</v>
+      </c>
+      <c r="F207">
+        <v>112</v>
+      </c>
+      <c r="G207">
+        <v>99</v>
+      </c>
+      <c r="H207">
+        <v>66</v>
+      </c>
+      <c r="I207">
+        <v>17</v>
+      </c>
+      <c r="J207">
+        <v>5</v>
+      </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="1"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="1"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="1"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B208">
+        <v>51</v>
+      </c>
+      <c r="C208">
+        <v>40</v>
+      </c>
+      <c r="D208">
+        <v>169</v>
+      </c>
+      <c r="E208">
+        <v>122</v>
+      </c>
+      <c r="F208">
+        <v>109</v>
+      </c>
+      <c r="G208">
+        <v>94</v>
+      </c>
+      <c r="H208">
+        <v>60</v>
+      </c>
+      <c r="I208">
+        <v>17</v>
+      </c>
+      <c r="J208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B209">
+        <v>40</v>
+      </c>
+      <c r="C209">
+        <v>49</v>
+      </c>
+      <c r="D209">
+        <v>138</v>
+      </c>
+      <c r="E209">
+        <v>142</v>
+      </c>
+      <c r="F209">
+        <v>108</v>
+      </c>
+      <c r="G209">
+        <v>88</v>
+      </c>
+      <c r="H209">
+        <v>62</v>
+      </c>
+      <c r="I209">
+        <v>27</v>
+      </c>
+      <c r="J209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B210">
+        <v>33</v>
+      </c>
+      <c r="C210">
+        <v>74</v>
+      </c>
+      <c r="D210">
+        <v>136</v>
+      </c>
+      <c r="E210">
+        <v>165</v>
+      </c>
+      <c r="F210">
+        <v>109</v>
+      </c>
+      <c r="G210">
+        <v>73</v>
+      </c>
+      <c r="H210">
+        <v>44</v>
+      </c>
+      <c r="I210">
+        <v>16</v>
+      </c>
+      <c r="J210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B211">
+        <v>27</v>
+      </c>
+      <c r="C211">
+        <v>46</v>
+      </c>
+      <c r="D211">
+        <v>128</v>
+      </c>
+      <c r="E211">
+        <v>103</v>
+      </c>
+      <c r="F211">
+        <v>99</v>
+      </c>
+      <c r="G211">
+        <v>72</v>
+      </c>
+      <c r="H211">
+        <v>55</v>
+      </c>
+      <c r="I211">
+        <v>15</v>
+      </c>
+      <c r="J211">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B212">
+        <v>34</v>
+      </c>
+      <c r="C212">
+        <v>37</v>
+      </c>
+      <c r="D212">
+        <v>130</v>
+      </c>
+      <c r="E212">
+        <v>95</v>
+      </c>
+      <c r="F212">
+        <v>91</v>
+      </c>
+      <c r="G212">
+        <v>81</v>
+      </c>
+      <c r="H212">
+        <v>46</v>
+      </c>
+      <c r="I212">
+        <v>16</v>
+      </c>
+      <c r="J212">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B213">
+        <v>37</v>
+      </c>
+      <c r="C213">
+        <v>81</v>
+      </c>
+      <c r="D213">
+        <v>168</v>
+      </c>
+      <c r="E213">
+        <v>181</v>
+      </c>
+      <c r="F213">
+        <v>139</v>
+      </c>
+      <c r="G213">
+        <v>92</v>
+      </c>
+      <c r="H213">
+        <v>72</v>
+      </c>
+      <c r="I213">
+        <v>25</v>
+      </c>
+      <c r="J213">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B214">
+        <v>50</v>
+      </c>
+      <c r="C214">
+        <v>61</v>
+      </c>
+      <c r="D214">
+        <v>164</v>
+      </c>
+      <c r="E214">
+        <v>164</v>
+      </c>
+      <c r="F214">
+        <v>119</v>
+      </c>
+      <c r="G214">
+        <v>63</v>
+      </c>
+      <c r="H214">
+        <v>65</v>
+      </c>
+      <c r="I214">
+        <v>19</v>
+      </c>
+      <c r="J214">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B215">
+        <v>41</v>
+      </c>
+      <c r="C215">
+        <v>62</v>
+      </c>
+      <c r="D215">
+        <v>167</v>
+      </c>
+      <c r="E215">
+        <v>139</v>
+      </c>
+      <c r="F215">
+        <v>122</v>
+      </c>
+      <c r="G215">
+        <v>88</v>
+      </c>
+      <c r="H215">
+        <v>86</v>
+      </c>
+      <c r="I215">
+        <v>32</v>
+      </c>
+      <c r="J215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B216">
+        <v>36</v>
+      </c>
+      <c r="C216">
+        <v>64</v>
+      </c>
+      <c r="D216">
+        <v>138</v>
+      </c>
+      <c r="E216">
+        <v>133</v>
+      </c>
+      <c r="F216">
+        <v>130</v>
+      </c>
+      <c r="G216">
+        <v>97</v>
+      </c>
+      <c r="H216">
+        <v>58</v>
+      </c>
+      <c r="I216">
+        <v>31</v>
+      </c>
+      <c r="J216">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B217">
+        <v>36</v>
+      </c>
+      <c r="C217">
+        <v>63</v>
+      </c>
+      <c r="D217">
+        <v>153</v>
+      </c>
+      <c r="E217">
+        <v>122</v>
+      </c>
+      <c r="F217">
+        <v>125</v>
+      </c>
+      <c r="G217">
+        <v>117</v>
+      </c>
+      <c r="H217">
+        <v>78</v>
+      </c>
+      <c r="I217">
+        <v>35</v>
+      </c>
+      <c r="J217">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44458</v>
+      </c>
+      <c r="B218">
+        <v>29</v>
+      </c>
+      <c r="C218">
+        <v>41</v>
+      </c>
+      <c r="D218">
+        <v>125</v>
+      </c>
+      <c r="E218">
+        <v>106</v>
+      </c>
+      <c r="F218">
+        <v>113</v>
+      </c>
+      <c r="G218">
+        <v>70</v>
+      </c>
+      <c r="H218">
+        <v>55</v>
+      </c>
+      <c r="I218">
+        <v>27</v>
+      </c>
+      <c r="J218">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B219">
+        <v>26</v>
+      </c>
+      <c r="C219">
+        <v>57</v>
+      </c>
+      <c r="D219">
+        <v>127</v>
+      </c>
+      <c r="E219">
+        <v>117</v>
+      </c>
+      <c r="F219">
+        <v>122</v>
+      </c>
+      <c r="G219">
+        <v>89</v>
+      </c>
+      <c r="H219">
+        <v>84</v>
+      </c>
+      <c r="I219">
+        <v>37</v>
+      </c>
+      <c r="J219">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B220">
+        <v>28</v>
+      </c>
+      <c r="C220">
+        <v>44</v>
+      </c>
+      <c r="D220">
+        <v>101</v>
+      </c>
+      <c r="E220">
+        <v>114</v>
+      </c>
+      <c r="F220">
+        <v>108</v>
+      </c>
+      <c r="G220">
+        <v>103</v>
+      </c>
+      <c r="H220">
+        <v>85</v>
+      </c>
+      <c r="I220">
+        <v>56</v>
+      </c>
+      <c r="J220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B221">
+        <v>23</v>
+      </c>
+      <c r="C221">
+        <v>47</v>
+      </c>
+      <c r="D221">
+        <v>140</v>
+      </c>
+      <c r="E221">
+        <v>115</v>
+      </c>
+      <c r="F221">
+        <v>108</v>
+      </c>
+      <c r="G221">
+        <v>89</v>
+      </c>
+      <c r="H221">
+        <v>70</v>
+      </c>
+      <c r="I221">
+        <v>42</v>
+      </c>
+      <c r="J221">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B222">
+        <v>28</v>
+      </c>
+      <c r="C222">
+        <v>74</v>
+      </c>
+      <c r="D222">
+        <v>175</v>
+      </c>
+      <c r="E222">
+        <v>151</v>
+      </c>
+      <c r="F222">
+        <v>184</v>
+      </c>
+      <c r="G222">
+        <v>149</v>
+      </c>
+      <c r="H222">
+        <v>97</v>
+      </c>
+      <c r="I222">
+        <v>33</v>
+      </c>
+      <c r="J222">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B223">
+        <v>61</v>
+      </c>
+      <c r="C223">
+        <v>107</v>
+      </c>
+      <c r="D223">
+        <v>284</v>
+      </c>
+      <c r="E223">
+        <v>223</v>
+      </c>
+      <c r="F223">
+        <v>191</v>
+      </c>
+      <c r="G223">
+        <v>149</v>
+      </c>
+      <c r="H223">
+        <v>129</v>
+      </c>
+      <c r="I223">
+        <v>62</v>
+      </c>
+      <c r="J223">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B224">
+        <v>52</v>
+      </c>
+      <c r="C224">
+        <v>83</v>
+      </c>
+      <c r="D224">
+        <v>228</v>
+      </c>
+      <c r="E224">
+        <v>158</v>
+      </c>
+      <c r="F224">
+        <v>134</v>
+      </c>
+      <c r="G224">
+        <v>125</v>
+      </c>
+      <c r="H224">
+        <v>91</v>
+      </c>
+      <c r="I224">
+        <v>35</v>
+      </c>
+      <c r="J224">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B225">
+        <v>46</v>
+      </c>
+      <c r="C225">
+        <v>65</v>
+      </c>
+      <c r="D225">
+        <v>184</v>
+      </c>
+      <c r="E225">
+        <v>151</v>
+      </c>
+      <c r="F225">
+        <v>114</v>
+      </c>
+      <c r="G225">
+        <v>95</v>
+      </c>
+      <c r="H225">
+        <v>75</v>
+      </c>
+      <c r="I225">
+        <v>41</v>
+      </c>
+      <c r="J225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B226">
+        <v>41</v>
+      </c>
+      <c r="C226">
+        <v>102</v>
+      </c>
+      <c r="D226">
+        <v>178</v>
+      </c>
+      <c r="E226">
+        <v>133</v>
+      </c>
+      <c r="F226">
+        <v>144</v>
+      </c>
+      <c r="G226">
+        <v>94</v>
+      </c>
+      <c r="H226">
+        <v>84</v>
+      </c>
+      <c r="I226">
+        <v>45</v>
+      </c>
+      <c r="J226">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B227">
+        <v>41</v>
+      </c>
+      <c r="C227">
+        <v>102</v>
+      </c>
+      <c r="D227">
+        <v>264</v>
+      </c>
+      <c r="E227">
+        <v>179</v>
+      </c>
+      <c r="F227">
+        <v>154</v>
+      </c>
+      <c r="G227">
+        <v>125</v>
+      </c>
+      <c r="H227">
+        <v>102</v>
+      </c>
+      <c r="I227">
+        <v>67</v>
+      </c>
+      <c r="J227">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B228">
+        <v>50</v>
+      </c>
+      <c r="C228">
+        <v>113</v>
+      </c>
+      <c r="D228">
+        <v>200</v>
+      </c>
+      <c r="E228">
+        <v>160</v>
+      </c>
+      <c r="F228">
+        <v>126</v>
+      </c>
+      <c r="G228">
+        <v>127</v>
+      </c>
+      <c r="H228">
+        <v>95</v>
+      </c>
+      <c r="I228">
+        <v>44</v>
+      </c>
+      <c r="J228">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B229">
+        <v>52</v>
+      </c>
+      <c r="C229">
+        <v>104</v>
+      </c>
+      <c r="D229">
+        <v>209</v>
+      </c>
+      <c r="E229">
+        <v>124</v>
+      </c>
+      <c r="F229">
+        <v>141</v>
+      </c>
+      <c r="G229">
+        <v>110</v>
+      </c>
+      <c r="H229">
+        <v>111</v>
+      </c>
+      <c r="I229">
+        <v>40</v>
+      </c>
+      <c r="J229">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B230">
+        <v>59</v>
+      </c>
+      <c r="C230">
+        <v>80</v>
+      </c>
+      <c r="D230">
+        <v>160</v>
+      </c>
+      <c r="E230">
+        <v>114</v>
+      </c>
+      <c r="F230">
+        <v>130</v>
+      </c>
+      <c r="G230">
+        <v>94</v>
+      </c>
+      <c r="H230">
+        <v>98</v>
+      </c>
+      <c r="I230">
+        <v>36</v>
+      </c>
+      <c r="J230">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B231">
+        <v>43</v>
+      </c>
+      <c r="C231">
+        <v>65</v>
+      </c>
+      <c r="D231">
+        <v>154</v>
+      </c>
+      <c r="E231">
+        <v>122</v>
+      </c>
+      <c r="F231">
+        <v>112</v>
+      </c>
+      <c r="G231">
+        <v>92</v>
+      </c>
+      <c r="H231">
+        <v>80</v>
+      </c>
+      <c r="I231">
+        <v>42</v>
+      </c>
+      <c r="J231">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B232">
+        <v>44</v>
+      </c>
+      <c r="C232">
+        <v>58</v>
+      </c>
+      <c r="D232">
+        <v>93</v>
+      </c>
+      <c r="E232">
+        <v>85</v>
+      </c>
+      <c r="F232">
+        <v>91</v>
+      </c>
+      <c r="G232">
+        <v>86</v>
+      </c>
+      <c r="H232">
+        <v>70</v>
+      </c>
+      <c r="I232">
+        <v>30</v>
+      </c>
+      <c r="J232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B233">
+        <v>25</v>
+      </c>
+      <c r="C233">
+        <v>42</v>
+      </c>
+      <c r="D233">
+        <v>90</v>
+      </c>
+      <c r="E233">
+        <v>91</v>
+      </c>
+      <c r="F233">
+        <v>71</v>
+      </c>
+      <c r="G233">
+        <v>64</v>
+      </c>
+      <c r="H233">
+        <v>67</v>
+      </c>
+      <c r="I233">
+        <v>32</v>
+      </c>
+      <c r="J233">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B234">
+        <v>36</v>
+      </c>
+      <c r="C234">
+        <v>67</v>
+      </c>
+      <c r="D234">
+        <v>132</v>
+      </c>
+      <c r="E234">
+        <v>120</v>
+      </c>
+      <c r="F234">
+        <v>95</v>
+      </c>
+      <c r="G234">
+        <v>99</v>
+      </c>
+      <c r="H234">
+        <v>79</v>
+      </c>
+      <c r="I234">
+        <v>46</v>
+      </c>
+      <c r="J234">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B235">
+        <v>43</v>
+      </c>
+      <c r="C235">
+        <v>97</v>
+      </c>
+      <c r="D235">
+        <v>148</v>
+      </c>
+      <c r="E235">
+        <v>117</v>
+      </c>
+      <c r="F235">
+        <v>129</v>
+      </c>
+      <c r="G235">
+        <v>105</v>
+      </c>
+      <c r="H235">
+        <v>121</v>
+      </c>
+      <c r="I235">
+        <v>50</v>
+      </c>
+      <c r="J235">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B236">
+        <v>58</v>
+      </c>
+      <c r="C236">
+        <v>73</v>
+      </c>
+      <c r="D236">
+        <v>128</v>
+      </c>
+      <c r="E236">
+        <v>110</v>
+      </c>
+      <c r="F236">
+        <v>101</v>
+      </c>
+      <c r="G236">
+        <v>103</v>
+      </c>
+      <c r="H236">
+        <v>133</v>
+      </c>
+      <c r="I236">
+        <v>48</v>
+      </c>
+      <c r="J236">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B237">
+        <v>42</v>
+      </c>
+      <c r="C237">
+        <v>71</v>
+      </c>
+      <c r="D237">
+        <v>122</v>
+      </c>
+      <c r="E237">
+        <v>102</v>
+      </c>
+      <c r="F237">
+        <v>120</v>
+      </c>
+      <c r="G237">
+        <v>86</v>
+      </c>
+      <c r="H237">
+        <v>106</v>
+      </c>
+      <c r="I237">
+        <v>40</v>
+      </c>
+      <c r="J237">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B238">
+        <v>37</v>
+      </c>
+      <c r="C238">
+        <v>60</v>
+      </c>
+      <c r="D238">
+        <v>115</v>
+      </c>
+      <c r="E238">
+        <v>102</v>
+      </c>
+      <c r="F238">
+        <v>81</v>
+      </c>
+      <c r="G238">
+        <v>64</v>
+      </c>
+      <c r="H238">
+        <v>72</v>
+      </c>
+      <c r="I238">
+        <v>39</v>
+      </c>
+      <c r="J238">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B239">
+        <v>32</v>
+      </c>
+      <c r="C239">
+        <v>59</v>
+      </c>
+      <c r="D239">
+        <v>79</v>
+      </c>
+      <c r="E239">
+        <v>79</v>
+      </c>
+      <c r="F239">
+        <v>79</v>
+      </c>
+      <c r="G239">
+        <v>72</v>
+      </c>
+      <c r="H239">
+        <v>65</v>
+      </c>
+      <c r="I239">
+        <v>32</v>
+      </c>
+      <c r="J239">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B240">
+        <v>31</v>
+      </c>
+      <c r="C240">
+        <v>63</v>
+      </c>
+      <c r="D240">
+        <v>75</v>
+      </c>
+      <c r="E240">
+        <v>77</v>
+      </c>
+      <c r="F240">
+        <v>81</v>
+      </c>
+      <c r="G240">
+        <v>53</v>
+      </c>
+      <c r="H240">
+        <v>59</v>
+      </c>
+      <c r="I240">
+        <v>27</v>
+      </c>
+      <c r="J240">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B241">
+        <v>42</v>
+      </c>
+      <c r="C241">
+        <v>60</v>
+      </c>
+      <c r="D241">
+        <v>95</v>
+      </c>
+      <c r="E241">
+        <v>93</v>
+      </c>
+      <c r="F241">
+        <v>92</v>
+      </c>
+      <c r="G241">
+        <v>75</v>
+      </c>
+      <c r="H241">
+        <v>83</v>
+      </c>
+      <c r="I241">
+        <v>32</v>
+      </c>
+      <c r="J241">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B242">
+        <v>49</v>
+      </c>
+      <c r="C242">
+        <v>89</v>
+      </c>
+      <c r="D242">
+        <v>96</v>
+      </c>
+      <c r="E242">
+        <v>116</v>
+      </c>
+      <c r="F242">
+        <v>108</v>
+      </c>
+      <c r="G242">
+        <v>90</v>
+      </c>
+      <c r="H242">
+        <v>107</v>
+      </c>
+      <c r="I242">
+        <v>75</v>
+      </c>
+      <c r="J242">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B243">
+        <v>70</v>
+      </c>
+      <c r="C243">
+        <v>69</v>
+      </c>
+      <c r="D243">
+        <v>96</v>
+      </c>
+      <c r="E243">
+        <v>103</v>
+      </c>
+      <c r="F243">
+        <v>98</v>
+      </c>
+      <c r="G243">
+        <v>82</v>
+      </c>
+      <c r="H243">
+        <v>93</v>
+      </c>
+      <c r="I243">
+        <v>47</v>
+      </c>
+      <c r="J243">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B244">
+        <v>38</v>
+      </c>
+      <c r="C244">
+        <v>62</v>
+      </c>
+      <c r="D244">
+        <v>76</v>
+      </c>
+      <c r="E244">
+        <v>99</v>
+      </c>
+      <c r="F244">
+        <v>87</v>
+      </c>
+      <c r="G244">
+        <v>89</v>
+      </c>
+      <c r="H244">
+        <v>88</v>
+      </c>
+      <c r="I244">
+        <v>29</v>
+      </c>
+      <c r="J244">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B245">
+        <v>30</v>
+      </c>
+      <c r="C245">
+        <v>44</v>
+      </c>
+      <c r="D245">
+        <v>75</v>
+      </c>
+      <c r="E245">
+        <v>77</v>
+      </c>
+      <c r="F245">
+        <v>66</v>
+      </c>
+      <c r="G245">
+        <v>62</v>
+      </c>
+      <c r="H245">
+        <v>93</v>
+      </c>
+      <c r="I245">
+        <v>45</v>
+      </c>
+      <c r="J245">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B246">
+        <v>28</v>
+      </c>
+      <c r="C246">
+        <v>35</v>
+      </c>
+      <c r="D246">
+        <v>46</v>
+      </c>
+      <c r="E246">
+        <v>55</v>
+      </c>
+      <c r="F246">
+        <v>54</v>
+      </c>
+      <c r="G246">
+        <v>49</v>
+      </c>
+      <c r="H246">
+        <v>49</v>
+      </c>
+      <c r="I246">
+        <v>30</v>
+      </c>
+      <c r="J246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B247">
+        <v>18</v>
+      </c>
+      <c r="C247">
+        <v>35</v>
+      </c>
+      <c r="D247">
+        <v>33</v>
+      </c>
+      <c r="E247">
+        <v>48</v>
+      </c>
+      <c r="F247">
+        <v>37</v>
+      </c>
+      <c r="G247">
+        <v>49</v>
+      </c>
+      <c r="H247">
+        <v>40</v>
+      </c>
+      <c r="I247">
+        <v>23</v>
+      </c>
+      <c r="J247">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B248">
+        <v>26</v>
+      </c>
+      <c r="C248">
+        <v>60</v>
+      </c>
+      <c r="D248">
+        <v>73</v>
+      </c>
+      <c r="E248">
+        <v>84</v>
+      </c>
+      <c r="F248">
+        <v>64</v>
+      </c>
+      <c r="G248">
+        <v>57</v>
+      </c>
+      <c r="H248">
+        <v>82</v>
+      </c>
+      <c r="I248">
+        <v>37</v>
+      </c>
+      <c r="J248">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B249">
+        <v>46</v>
+      </c>
+      <c r="C249">
+        <v>58</v>
+      </c>
+      <c r="D249">
+        <v>55</v>
+      </c>
+      <c r="E249">
+        <v>100</v>
+      </c>
+      <c r="F249">
+        <v>58</v>
+      </c>
+      <c r="G249">
+        <v>61</v>
+      </c>
+      <c r="H249">
+        <v>71</v>
+      </c>
+      <c r="I249">
+        <v>41</v>
+      </c>
+      <c r="J249">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B250">
+        <v>37</v>
+      </c>
+      <c r="C250">
+        <v>56</v>
+      </c>
+      <c r="D250">
+        <v>56</v>
+      </c>
+      <c r="E250">
+        <v>91</v>
+      </c>
+      <c r="F250">
+        <v>78</v>
+      </c>
+      <c r="G250">
+        <v>56</v>
+      </c>
+      <c r="H250">
+        <v>93</v>
+      </c>
+      <c r="I250">
+        <v>37</v>
+      </c>
+      <c r="J250">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B251">
+        <v>47</v>
+      </c>
+      <c r="C251">
+        <v>57</v>
+      </c>
+      <c r="D251">
+        <v>60</v>
+      </c>
+      <c r="E251">
+        <v>87</v>
+      </c>
+      <c r="F251">
+        <v>63</v>
+      </c>
+      <c r="G251">
+        <v>56</v>
+      </c>
+      <c r="H251">
+        <v>91</v>
+      </c>
+      <c r="I251">
+        <v>47</v>
+      </c>
+      <c r="J251">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B252">
+        <v>40</v>
+      </c>
+      <c r="C252">
+        <v>66</v>
+      </c>
+      <c r="D252">
+        <v>53</v>
+      </c>
+      <c r="E252">
+        <v>85</v>
+      </c>
+      <c r="F252">
+        <v>79</v>
+      </c>
+      <c r="G252">
+        <v>50</v>
+      </c>
+      <c r="H252">
+        <v>102</v>
+      </c>
+      <c r="I252">
+        <v>35</v>
+      </c>
+      <c r="J252">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B253">
+        <v>33</v>
+      </c>
+      <c r="C253">
+        <v>59</v>
+      </c>
+      <c r="D253">
+        <v>38</v>
+      </c>
+      <c r="E253">
+        <v>69</v>
+      </c>
+      <c r="F253">
+        <v>64</v>
+      </c>
+      <c r="G253">
+        <v>64</v>
+      </c>
+      <c r="H253">
+        <v>78</v>
+      </c>
+      <c r="I253">
+        <v>35</v>
+      </c>
+      <c r="J253">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B254">
+        <v>28</v>
+      </c>
+      <c r="C254">
+        <v>60</v>
+      </c>
+      <c r="D254">
+        <v>53</v>
+      </c>
+      <c r="E254">
+        <v>75</v>
+      </c>
+      <c r="F254">
+        <v>62</v>
+      </c>
+      <c r="G254">
+        <v>50</v>
+      </c>
+      <c r="H254">
+        <v>55</v>
+      </c>
+      <c r="I254">
+        <v>27</v>
+      </c>
+      <c r="J254">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B255">
+        <v>59</v>
+      </c>
+      <c r="C255">
+        <v>99</v>
+      </c>
+      <c r="D255">
+        <v>84</v>
+      </c>
+      <c r="E255">
+        <v>118</v>
+      </c>
+      <c r="F255">
+        <v>90</v>
+      </c>
+      <c r="G255">
+        <v>90</v>
+      </c>
+      <c r="H255">
+        <v>107</v>
+      </c>
+      <c r="I255">
+        <v>59</v>
+      </c>
+      <c r="J255">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B256">
+        <v>68</v>
+      </c>
+      <c r="C256">
+        <v>83</v>
+      </c>
+      <c r="D256">
+        <v>103</v>
+      </c>
+      <c r="E256">
+        <v>129</v>
+      </c>
+      <c r="F256">
+        <v>90</v>
+      </c>
+      <c r="G256">
+        <v>99</v>
+      </c>
+      <c r="H256">
+        <v>130</v>
+      </c>
+      <c r="I256">
+        <v>55</v>
+      </c>
+      <c r="J256">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B257">
+        <v>59</v>
+      </c>
+      <c r="C257">
+        <v>80</v>
+      </c>
+      <c r="D257">
+        <v>90</v>
+      </c>
+      <c r="E257">
+        <v>120</v>
+      </c>
+      <c r="F257">
+        <v>93</v>
+      </c>
+      <c r="G257">
+        <v>96</v>
+      </c>
+      <c r="H257">
+        <v>123</v>
+      </c>
+      <c r="I257">
+        <v>74</v>
+      </c>
+      <c r="J257">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B258">
+        <v>56</v>
+      </c>
+      <c r="C258">
+        <v>70</v>
+      </c>
+      <c r="D258">
+        <v>74</v>
+      </c>
+      <c r="E258">
+        <v>97</v>
+      </c>
+      <c r="F258">
+        <v>95</v>
+      </c>
+      <c r="G258">
+        <v>88</v>
+      </c>
+      <c r="H258">
+        <v>128</v>
+      </c>
+      <c r="I258">
+        <v>60</v>
+      </c>
+      <c r="J258">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B259">
+        <v>52</v>
+      </c>
+      <c r="C259">
+        <v>77</v>
+      </c>
+      <c r="D259">
+        <v>90</v>
+      </c>
+      <c r="E259">
+        <v>98</v>
+      </c>
+      <c r="F259">
+        <v>103</v>
+      </c>
+      <c r="G259">
+        <v>99</v>
+      </c>
+      <c r="H259">
+        <v>147</v>
+      </c>
+      <c r="I259">
+        <v>68</v>
+      </c>
+      <c r="J259">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B260">
+        <v>43</v>
+      </c>
+      <c r="C260">
+        <v>76</v>
+      </c>
+      <c r="D260">
+        <v>67</v>
+      </c>
+      <c r="E260">
+        <v>97</v>
+      </c>
+      <c r="F260">
+        <v>78</v>
+      </c>
+      <c r="G260">
+        <v>74</v>
+      </c>
+      <c r="H260">
+        <v>127</v>
+      </c>
+      <c r="I260">
+        <v>53</v>
+      </c>
+      <c r="J260">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B261">
+        <v>61</v>
+      </c>
+      <c r="C261">
+        <v>85</v>
+      </c>
+      <c r="D261">
+        <v>60</v>
+      </c>
+      <c r="E261">
+        <v>69</v>
+      </c>
+      <c r="F261">
+        <v>63</v>
+      </c>
+      <c r="G261">
+        <v>78</v>
+      </c>
+      <c r="H261">
+        <v>106</v>
+      </c>
+      <c r="I261">
+        <v>51</v>
+      </c>
+      <c r="J261">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
